--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55134000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>63024000</v>
+      </c>
+      <c r="F8" s="3">
         <v>63422000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>67491000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>61646000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>68253000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>74187000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>71456000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>65436000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>50832000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>59350000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56026000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>56474000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>40396000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40380000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44254000</v>
+      </c>
+      <c r="F9" s="3">
         <v>44138000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>48464000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>43771000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>46957000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>50873000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>50245000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>44779000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>28979000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>45248000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>43843000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>43267000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>21193000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14754000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18770000</v>
+      </c>
+      <c r="F10" s="3">
         <v>19284000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19027000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>17875000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>21296000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>23314000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>21211000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20657000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>21853000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>14102000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>12183000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>13207000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>19203000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,52 +896,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>357000</v>
+      </c>
+      <c r="F12" s="3">
         <v>299000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>333000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>280000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>555000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>292000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>332000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>287000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>703000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>284000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>514000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>289000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>340000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,52 +1042,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5819000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4923000</v>
+      </c>
+      <c r="F15" s="3">
         <v>4873000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4631000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4571000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>5028000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4658000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>4589000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4470000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5842000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4880000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4652000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4519000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>8117000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>56167000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>60558000</v>
+      </c>
+      <c r="F17" s="3">
         <v>60096000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>64243000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>59155000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>63559000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>67325000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>66842000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>60767000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>48832000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>55406000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>53763000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>52607000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>42224000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1033000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2466000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3326000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3248000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2491000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4694000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6862000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4614000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4669000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2000000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3944000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2263000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3867000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1627000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1979000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3642000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2418000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2045000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2775000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1203000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1750000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2051000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2197000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2640000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5810000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11538000</v>
+      </c>
+      <c r="F21" s="3">
         <v>9826000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9479000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9041000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13364000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>13938000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11248000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>11914000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9045000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10574000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>8966000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10583000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8929000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="F22" s="3">
         <v>232000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>216000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>181000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>215000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>147000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>204000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>186000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>111000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>158000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>146000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>195000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6414000</v>
+      </c>
+      <c r="F23" s="3">
         <v>4721000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4632000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4289000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8121000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>9080000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6512000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>7240000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3017000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5583000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4156000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5918000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>617000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1474000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1241000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1883000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1935000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2634000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2526000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2457000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>550000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1498000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>892000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1828000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-770000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4990000</v>
+      </c>
+      <c r="F26" s="3">
         <v>3247000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3391000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2406000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6186000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6446000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3986000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4783000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2467000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4085000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3264000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4090000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2024000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4950000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3170000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3130000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2350000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5980000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6240000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3950000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4650000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2438000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3970000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3350000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4010000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1680000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1565,40 +1679,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="E29" s="3">
+        <v>740000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>20000</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>20000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>5942000</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>5942000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1024000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4149000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5690000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3170000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3130000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2350000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6000000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6240000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3950000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4650000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>8380000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3970000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3350000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4010000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1680000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5690000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3170000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3130000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2350000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6000000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6240000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3950000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4650000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>8380000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3970000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3350000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4010000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1680000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11412000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="F41" s="3">
         <v>5351000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4213000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4586000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3042000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5669000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3430000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4125000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4266000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4042000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4897000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3657000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,272 +2224,314 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20871000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26966000</v>
+      </c>
+      <c r="F43" s="3">
         <v>25308000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>27132000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>27105000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>24701000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>27880000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>26993000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>24686000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>25597000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>23263000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21289000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>21842000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>21394000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16501000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18528000</v>
+      </c>
+      <c r="F44" s="3">
         <v>17590000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>18835000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>18332000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>18958000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>18761000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>18483000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>18048000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>16992000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16743000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>15305000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>14873000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15080000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1469000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1759000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1563000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1553000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1272000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1665000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1649000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1456000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1368000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1480000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1544000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1519000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1285000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50249000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>50052000</v>
+      </c>
+      <c r="F46" s="3">
         <v>50008000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>51743000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>51576000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>47973000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>53975000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>50555000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>48315000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>47134000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>45752000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>42180000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>43131000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>41416000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>42981000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>43164000</v>
+      </c>
+      <c r="F47" s="3">
         <v>42920000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>42533000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>42068000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>40790000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>40427000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>39691000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>40350000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>39160000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>37649000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>37719000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>38268000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>35102000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>252011000</v>
+        <v>248409000</v>
       </c>
       <c r="E48" s="3">
-        <v>252389000</v>
+        <v>259651000</v>
       </c>
       <c r="F48" s="3">
-        <v>250117000</v>
+        <v>257065000</v>
       </c>
       <c r="G48" s="3">
+        <v>257118000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>253003000</v>
+      </c>
+      <c r="I48" s="3">
         <v>247101000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>249153000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>248209000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>250352000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>252630000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>255556000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>252987000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>253147000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>244224000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,8 +2574,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14422000</v>
+        <v>14165000</v>
       </c>
       <c r="E52" s="3">
-        <v>14064000</v>
+        <v>9730000</v>
       </c>
       <c r="F52" s="3">
-        <v>12428000</v>
+        <v>9368000</v>
       </c>
       <c r="G52" s="3">
+        <v>9335000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9542000</v>
+      </c>
+      <c r="I52" s="3">
         <v>10332000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11073000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10335000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9809000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9767000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10470000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10126000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9663000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9572000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>355804000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>362597000</v>
+      </c>
+      <c r="F54" s="3">
         <v>359361000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>360729000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>356189000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>346196000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>354628000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>348790000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>348826000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>348691000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>349427000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>343012000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>344209000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>330314000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35815000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>40605000</v>
+      </c>
+      <c r="F57" s="3">
         <v>39336000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>40324000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>41190000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37268000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>41714000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>38490000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>37207000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36796000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>34698000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>31100000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32069000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>31193000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27755000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20593000</v>
+      </c>
+      <c r="F58" s="3">
         <v>21219000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>26227000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>21828000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17258000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>19413000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>20500000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>19836000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17930000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>15741000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>17185000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>18483000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>13830000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3640000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3736000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3614000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2612000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4161000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3457000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3263000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3045000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3338000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2664000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2822000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2615000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64773000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63989000</v>
+      </c>
+      <c r="F60" s="3">
         <v>64195000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>70287000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>66632000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>57138000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>65288000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>62447000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>60306000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>57771000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>53777000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>50949000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>53374000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>47638000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31857000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>26481000</v>
+      </c>
+      <c r="F61" s="3">
         <v>26089000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>19141000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>19177000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>20538000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20624000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>20720000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>20781000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>24406000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>24869000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>24750000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>25124000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>28932000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>70431000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>73189000</v>
+      </c>
+      <c r="F62" s="3">
         <v>71968000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>72836000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>72359000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>69992000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>71885000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>72090000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>72828000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>72014000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>81583000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>81475000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>81940000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>79914000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>173725000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>170947000</v>
+      </c>
+      <c r="F66" s="3">
         <v>169446000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>169352000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>164967000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>154402000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>164263000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>161568000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>160631000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>161003000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>167151000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>163834000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>167058000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>162989000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>416919000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>421341000</v>
+      </c>
+      <c r="F72" s="3">
         <v>419367000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>419913000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>420498000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>421653000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>419155000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>416418000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>415970000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>414540000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>409449000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>408768000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>408707000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>407831000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>182079000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>191650000</v>
+      </c>
+      <c r="F76" s="3">
         <v>189915000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>191377000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>191222000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>191794000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>190365000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>187222000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>188195000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>187688000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>182276000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>179178000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>177151000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>167325000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5690000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3170000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3130000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2350000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6000000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6240000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3950000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4650000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>8380000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3970000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3350000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4010000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1680000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5819000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4923000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4873000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4631000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4571000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5028000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4658000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4589000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4470000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5842000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4880000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4652000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4519000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>8117000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6274000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6352000</v>
+      </c>
+      <c r="F89" s="3">
         <v>9079000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5947000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8338000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8607000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11108000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7780000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>8519000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7411000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7535000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6947000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8173000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7396000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5945000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6704000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6367000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4264000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3719000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-3505000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3502000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-3503000</v>
       </c>
       <c r="I96" s="3">
         <v>-3502000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3503000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-3502000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3289000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="M96" s="3">
         <v>-3289000</v>
       </c>
       <c r="N96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3134000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-3133000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-3133000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8785000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4456000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>548000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>106000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-125000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>43000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-149000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-135000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>30000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-127000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>232000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>135000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>74000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-414000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8323000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2262000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1138000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-373000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1544000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2239000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-695000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>948000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>224000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-855000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32277000</v>
+      </c>
+      <c r="E8" s="3">
         <v>55134000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63024000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63422000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67491000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61646000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>68253000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74187000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71456000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65436000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50832000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>59350000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56026000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56474000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40396000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20964000</v>
+      </c>
+      <c r="E9" s="3">
         <v>40380000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44254000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44138000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48464000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43771000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46957000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50873000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50245000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44779000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28979000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45248000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>43843000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43267000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21193000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11313000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14754000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18770000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19284000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19027000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17875000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21296000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23314000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21211000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20657000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21853000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14102000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12183000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13207000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19203000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E12" s="3">
         <v>288000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>357000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>299000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>333000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>280000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>555000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>292000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>332000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>287000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>703000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>284000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>514000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>289000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>340000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,58 +1067,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4916000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5819000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4923000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4873000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4631000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4571000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5028000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4658000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4589000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4470000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5842000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4880000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4652000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4519000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8117000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>33928000</v>
+      </c>
+      <c r="E17" s="3">
         <v>56167000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60558000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60096000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64243000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59155000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63559000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67325000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66842000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60767000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48832000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55406000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53763000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>52607000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42224000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1651000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2466000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3326000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3248000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2491000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4694000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6862000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4614000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4669000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3944000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2263000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3867000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1024000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4149000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1627000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1979000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3642000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2418000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2045000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2775000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1203000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1750000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2051000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2197000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2640000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3593000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5810000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11538000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9826000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9479000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9041000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13364000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13938000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11248000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11914000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9045000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10574000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8966000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10583000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8929000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E22" s="3">
         <v>249000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>201000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>232000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>216000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>181000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>215000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>147000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>204000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>186000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>111000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>158000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>146000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>195000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1640000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-258000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6414000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4721000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4632000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4289000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8121000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9080000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6512000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7240000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3017000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5583000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4156000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5918000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>617000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-471000</v>
+      </c>
+      <c r="E24" s="3">
         <v>512000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1424000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1474000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1241000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1883000</v>
       </c>
-      <c r="I24" s="3">
-        <v>1935000</v>
-      </c>
       <c r="J24" s="3">
+        <v>1936000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2634000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2526000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2457000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>550000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1498000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>892000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1828000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1169000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-770000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4990000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3247000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3391000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2406000</v>
       </c>
-      <c r="I26" s="3">
-        <v>6186000</v>
-      </c>
       <c r="J26" s="3">
+        <v>6185000</v>
+      </c>
+      <c r="K26" s="3">
         <v>6446000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3986000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4783000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2467000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4085000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3264000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4090000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2024000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-610000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4950000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3170000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3130000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2350000</v>
       </c>
-      <c r="I27" s="3">
-        <v>5980000</v>
-      </c>
       <c r="J27" s="3">
+        <v>5979000</v>
+      </c>
+      <c r="K27" s="3">
         <v>6240000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3950000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4650000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2438000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3970000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3350000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4010000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1680000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1685,19 +1742,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>740000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1705,11 +1765,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J29" s="3">
+        <v>21000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1717,11 +1777,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-610000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5690000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3170000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3130000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2350000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6000000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6240000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3950000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4650000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8380000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3970000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3350000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4010000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1680000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-610000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5690000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3170000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3130000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2350000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6000000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6240000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3950000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4650000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8380000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3970000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3350000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4010000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1680000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12576000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11412000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3089000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5351000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4213000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4586000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3042000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5669000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3430000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4125000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4266000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4042000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4897000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3657000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,308 +2319,329 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19036000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20871000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26966000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25308000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27132000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27105000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24701000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27880000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26993000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24686000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25597000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23263000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21289000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21842000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21394000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19657000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16501000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18528000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17590000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18835000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18332000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18958000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18761000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18483000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18048000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16992000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16743000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>15305000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14873000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15080000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1747000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1465000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1469000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1759000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1563000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1553000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1272000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1665000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1649000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1456000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1368000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1480000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1544000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1519000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1285000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>53016000</v>
+      </c>
+      <c r="E46" s="3">
         <v>50249000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50052000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50008000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51743000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51576000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47973000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53975000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50555000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48315000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47134000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45752000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42180000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43131000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41416000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43192000</v>
+      </c>
+      <c r="E47" s="3">
         <v>42981000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43164000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>42920000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42533000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>42068000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>40790000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>40427000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39691000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40350000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>39160000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>37649000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>37719000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>38268000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35102000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>250524000</v>
+      </c>
+      <c r="E48" s="3">
         <v>248409000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>259651000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>257065000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>257118000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>253003000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>247101000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>249153000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>248209000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>250352000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>252630000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>255556000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>252987000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>253147000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>244224000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2580,8 +2690,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14763000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14165000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9730000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9368000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9335000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9542000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10332000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11073000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10335000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9809000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9767000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10470000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10126000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9663000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9572000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>361495000</v>
+      </c>
+      <c r="E54" s="3">
         <v>355804000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>362597000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>359361000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>360729000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>356189000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>346196000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>354628000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>348790000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>348826000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>348691000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>349427000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>343012000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>344209000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>330314000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33216000</v>
+      </c>
+      <c r="E57" s="3">
         <v>35815000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40605000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39336000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40324000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41190000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37268000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41714000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38490000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37207000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36796000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34698000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31100000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32069000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31193000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22952000</v>
+      </c>
+      <c r="E58" s="3">
         <v>27755000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20593000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21219000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26227000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21828000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17258000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19413000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20500000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19836000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17930000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15741000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17185000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18483000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13830000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1203000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2791000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3640000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3736000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3614000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2612000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4161000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3457000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3263000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3045000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3338000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2664000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2615000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57270000</v>
+      </c>
+      <c r="E60" s="3">
         <v>64773000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63989000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64195000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70287000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66632000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57138000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65288000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62447000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60306000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57771000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53777000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50949000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53374000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47638000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46563000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31857000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26481000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26089000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19141000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19177000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20538000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20624000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20720000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20781000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24406000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24869000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24750000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25124000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28932000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>70509000</v>
+      </c>
+      <c r="E62" s="3">
         <v>70431000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>73189000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>71968000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72836000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72359000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>69992000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>71885000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72090000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72828000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72014000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>81583000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>81475000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81940000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79914000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>181312000</v>
+      </c>
+      <c r="E66" s="3">
         <v>173725000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170947000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169446000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169352000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>164967000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154402000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>164263000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161568000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>160631000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161003000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>167151000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>163834000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>167058000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>162989000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>412124000</v>
+      </c>
+      <c r="E72" s="3">
         <v>416919000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>421341000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>419367000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>419913000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>420498000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>421653000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>419155000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>416418000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>415970000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>414540000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>409449000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>408768000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>408707000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>407831000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>180183000</v>
+      </c>
+      <c r="E76" s="3">
         <v>182079000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>191650000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>189915000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>191377000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>191222000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>191794000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>190365000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>187222000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>188195000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>187688000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>182276000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>179178000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>177151000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>167325000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-610000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5690000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3170000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3130000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2350000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6000000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6240000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3950000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4650000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8380000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3970000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3350000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4010000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1680000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4916000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5819000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4923000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4873000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4631000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4571000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5028000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4658000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4589000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4470000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5842000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4880000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4652000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4519000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8117000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>6274000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6352000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9079000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5947000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8338000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8607000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11108000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7780000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8519000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7411000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7535000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6947000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8173000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7396000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4417000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5081000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,40 +4837,41 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3715000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="F96" s="3">
         <v>-3716000</v>
       </c>
       <c r="G96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="N96" s="3">
         <v>-3289000</v>
@@ -4647,16 +4880,19 @@
         <v>-3289000</v>
       </c>
       <c r="P96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="R96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6277000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8785000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>548000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-369000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>106000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-125000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>43000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-149000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-135000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>30000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-127000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>232000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>135000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>74000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-414000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1164000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8323000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1138000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-373000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1544000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2239000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-695000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>948000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>224000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-855000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1240000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45425000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32277000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55134000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63024000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63422000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67491000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>61646000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>68253000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74187000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71456000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65436000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50832000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>59350000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56026000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56474000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>40396000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31053000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20964000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40380000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44254000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44138000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48464000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43771000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46957000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50873000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50245000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44779000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28979000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45248000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43843000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43267000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21193000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14372000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11313000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14754000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18770000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19284000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19027000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17875000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21296000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23314000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21211000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20657000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21853000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14102000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12183000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13207000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19203000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E12" s="3">
         <v>214000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>288000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>357000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>299000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>333000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>280000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>555000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>292000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>332000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>287000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>703000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>284000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>514000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>289000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>340000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,61 +1089,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4983000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4916000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5819000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4923000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4873000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4631000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4571000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5028000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4658000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4589000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4470000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5842000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4880000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4652000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4519000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8117000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>46292000</v>
+      </c>
+      <c r="E17" s="3">
         <v>33928000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56167000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60558000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60096000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64243000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59155000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63559000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67325000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66842000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60767000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48832000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55406000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53763000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>52607000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42224000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-867000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2466000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3326000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3248000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2491000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4694000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6862000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4614000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4669000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3944000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2263000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3867000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E20" s="3">
         <v>328000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1024000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4149000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1627000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1979000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3642000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2418000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2045000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2775000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1203000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1750000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2051000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2197000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2640000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4890000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3593000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5810000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11538000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9826000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9479000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9041000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13364000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13938000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11248000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11914000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9045000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10574000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8966000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10583000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8929000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E22" s="3">
         <v>317000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>249000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>201000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>232000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>216000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>181000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>215000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>147000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>204000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>186000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>111000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>158000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>146000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>195000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-372000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-258000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6414000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4721000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4632000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4289000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8121000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9080000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6512000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7240000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3017000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5583000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4156000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5918000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>617000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-471000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>512000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1424000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1474000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1241000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1883000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1936000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2634000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2526000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2457000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>550000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1498000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>892000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1828000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-709000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-770000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4990000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3247000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3391000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2406000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6446000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3986000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4783000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2467000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4085000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3264000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4090000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2024000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-610000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4950000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3170000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3130000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2350000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5979000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6240000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3950000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4650000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2438000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3970000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3350000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4010000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1680000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,11 +1816,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>740000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1768,11 +1828,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>21000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1780,11 +1840,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-774000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-328000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-610000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5690000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3170000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3130000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2350000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6240000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3950000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4650000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8380000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3970000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3350000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4010000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1680000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-610000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5690000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3170000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3130000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2350000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6240000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3950000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4650000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8380000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3970000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3350000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4010000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1680000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8832000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12576000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11412000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3089000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5351000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4213000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4586000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3042000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5669000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3430000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4125000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3177000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4266000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4042000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4897000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3657000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,326 +2411,347 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19974000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19036000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20871000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26966000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25308000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27132000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27105000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24701000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27880000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26993000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24686000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25597000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23263000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21289000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21842000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21394000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17885000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19657000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16501000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18528000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17590000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18835000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18332000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18958000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18761000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18483000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18048000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16992000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16743000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15305000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>14873000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15080000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2002000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1747000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1465000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1469000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1759000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1563000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1553000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1272000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1665000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1649000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1456000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1368000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1480000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1544000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1519000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1285000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48693000</v>
+      </c>
+      <c r="E46" s="3">
         <v>53016000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50249000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50052000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50008000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51743000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>51576000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47973000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53975000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50555000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48315000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47134000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45752000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42180000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43131000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41416000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43609000</v>
+      </c>
+      <c r="E47" s="3">
         <v>43192000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>42981000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43164000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42920000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>42533000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42068000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>40790000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40427000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>39691000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40350000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39160000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>37649000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>37719000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>38268000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35102000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>250496000</v>
+      </c>
+      <c r="E48" s="3">
         <v>250524000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>248409000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>259651000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>257065000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>257118000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>253003000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>247101000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>249153000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>248209000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>250352000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>252630000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>255556000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>252987000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>253147000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>244224000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2693,8 +2803,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15245000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14763000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14165000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9730000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9368000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9335000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9542000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10332000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11073000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10335000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9809000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9767000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10470000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10126000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9663000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9572000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>358043000</v>
+      </c>
+      <c r="E54" s="3">
         <v>361495000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>355804000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>362597000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>359361000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>360729000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>356189000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>346196000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354628000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>348790000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>348826000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>348691000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>349427000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>343012000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>344209000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>330314000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33340000</v>
+      </c>
+      <c r="E57" s="3">
         <v>33216000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35815000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40605000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39336000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40324000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41190000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37268000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41714000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38490000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37207000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36796000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34698000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31100000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32069000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31193000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21911000</v>
+      </c>
+      <c r="E58" s="3">
         <v>22952000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27755000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20593000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21219000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26227000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21828000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17258000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19413000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20500000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19836000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17930000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15741000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17185000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18483000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13830000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1102000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1203000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2791000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3640000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3736000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3614000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2612000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4161000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3457000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3263000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3045000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3338000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2664000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2822000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2615000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56468000</v>
+      </c>
+      <c r="E60" s="3">
         <v>57270000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64773000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63989000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64195000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70287000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66632000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57138000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65288000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62447000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60306000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57771000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53777000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50949000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53374000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47638000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46888000</v>
+      </c>
+      <c r="E61" s="3">
         <v>46563000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31857000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26481000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26089000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19141000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19177000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20538000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20624000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20720000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20781000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24406000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24869000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24750000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25124000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28932000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>70075000</v>
+      </c>
+      <c r="E62" s="3">
         <v>70509000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70431000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>73189000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>71968000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72836000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72359000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>69992000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71885000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72090000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72828000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72014000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>81583000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81475000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>81940000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>79914000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180643000</v>
+      </c>
+      <c r="E66" s="3">
         <v>181312000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>173725000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170947000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169446000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169352000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>164967000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154402000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>164263000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>161568000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>160631000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161003000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>167151000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>163834000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>167058000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>162989000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>407728000</v>
+      </c>
+      <c r="E72" s="3">
         <v>412124000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>416919000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>421341000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>419367000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>419913000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>420498000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>421653000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>419155000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>416418000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>415970000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>414540000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>409449000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>408768000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>408707000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>407831000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177400000</v>
+      </c>
+      <c r="E76" s="3">
         <v>180183000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>182079000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>191650000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>189915000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>191377000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>191222000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>191794000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>190365000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>187222000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>188195000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>187688000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>182276000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>179178000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>177151000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>167325000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-610000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5690000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3170000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3130000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2350000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6240000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3950000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4650000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8380000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3970000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3350000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4010000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1680000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4983000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4916000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5819000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4923000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4873000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4631000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4571000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5028000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4658000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4589000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4470000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5842000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4880000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4652000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4519000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8117000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>4389000</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>6274000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6352000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9079000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5947000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8338000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8607000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11108000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7780000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8519000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7411000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7535000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6947000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8173000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7396000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3291000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3709000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,43 +5070,44 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="G96" s="3">
         <v>-3716000</v>
       </c>
       <c r="H96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="O96" s="3">
         <v>-3289000</v>
@@ -4883,16 +5116,19 @@
         <v>-3289000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="S96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4494000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6277000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8785000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>548000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-32000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-369000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>106000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-125000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>43000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-149000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-135000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>30000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-127000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>232000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>135000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>74000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-414000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3744000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1164000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8323000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1138000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-373000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1544000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2239000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-695000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>948000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>224000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-855000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1240000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45738000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45425000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32277000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55134000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63024000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>63422000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67491000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61646000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68253000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74187000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71456000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65436000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50832000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>59350000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56026000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56474000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>40396000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32041000</v>
+      </c>
+      <c r="E9" s="3">
         <v>31053000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20964000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40380000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44254000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44138000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48464000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43771000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46957000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50873000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50245000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44779000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28979000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45248000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43843000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43267000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21193000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13697000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14372000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11313000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14754000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18770000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19284000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19027000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17875000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21296000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23314000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21211000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20657000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21853000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14102000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12183000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13207000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19203000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E12" s="3">
         <v>188000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>214000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>288000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>357000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>299000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>333000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>280000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>555000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>292000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>332000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>287000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>703000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>284000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>514000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>289000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>340000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1092,64 +1111,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>30291000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4983000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4916000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5819000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4923000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4873000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4631000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4571000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5028000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4658000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4589000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4470000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5842000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4880000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4652000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4519000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8117000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>72840000</v>
+      </c>
+      <c r="E17" s="3">
         <v>46292000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33928000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56167000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60558000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>60096000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64243000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59155000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63559000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67325000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66842000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60767000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48832000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55406000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>53763000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>52607000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42224000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-27102000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-867000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2466000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3326000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3248000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2491000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4694000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6862000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4614000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4669000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3944000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2263000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3867000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E20" s="3">
         <v>774000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>328000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1024000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4149000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1627000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1979000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3642000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2418000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2045000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2775000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1203000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1750000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2051000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2197000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2640000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3991000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4890000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3593000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5810000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11538000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9826000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9479000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9041000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13364000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13938000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11248000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11914000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9045000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10574000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8966000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10583000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8929000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E22" s="3">
         <v>279000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>317000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>249000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>201000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>232000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>216000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>181000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>215000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>147000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>204000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>186000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>111000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>158000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>146000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>195000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-26613000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-372000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-258000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6414000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4721000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4632000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4289000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8121000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9080000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6512000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7240000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3017000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5583000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4156000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5918000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>617000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-5985000</v>
+      </c>
+      <c r="E24" s="3">
         <v>337000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-471000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>512000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1424000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1474000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1241000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1883000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1936000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2634000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2526000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2457000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>550000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1498000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>892000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1828000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-20628000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-709000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-770000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4990000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3247000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3391000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2406000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6446000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3986000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4783000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2467000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4085000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3264000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4090000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2024000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-20095000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-680000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-610000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4950000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3170000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3130000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2350000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5979000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6240000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3950000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4650000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2438000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3970000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3350000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4010000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1680000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1805,13 +1862,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>25000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -1819,11 +1879,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>740000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1831,11 +1891,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>21000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1843,11 +1903,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-802000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-774000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-328000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20070000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-680000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-610000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5690000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3170000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3130000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2350000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6240000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3950000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4650000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8380000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3970000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3350000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4010000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1680000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20070000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-680000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-610000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5690000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3170000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3130000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2350000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6240000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3950000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4650000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8380000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3970000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3350000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4010000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1680000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4364000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8832000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12576000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11412000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3089000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5351000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4213000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4586000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3042000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5669000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3430000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4125000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3177000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4266000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4042000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4897000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3657000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,344 +2503,365 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20581000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19974000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19036000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20871000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26966000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25308000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27132000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27105000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24701000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27880000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26993000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24686000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25597000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23263000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21289000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21842000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21394000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18850000</v>
+      </c>
+      <c r="E44" s="3">
         <v>17885000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19657000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16501000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18528000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17590000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18835000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18332000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18958000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18761000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18483000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18048000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16992000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16743000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15305000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14873000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>15080000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2002000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1747000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1465000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1469000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1759000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1563000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1553000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1272000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1665000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1649000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1456000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1368000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1480000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1544000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1519000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1285000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44893000</v>
+      </c>
+      <c r="E46" s="3">
         <v>48693000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>53016000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50249000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50052000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50008000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>51743000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>51576000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47973000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53975000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50555000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>48315000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47134000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45752000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42180000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43131000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41416000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43515000</v>
+      </c>
+      <c r="E47" s="3">
         <v>43609000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43192000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>42981000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43164000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>42920000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42533000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42068000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40790000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40427000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>39691000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40350000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39160000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>37649000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>37719000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>38268000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35102000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>227553000</v>
+      </c>
+      <c r="E48" s="3">
         <v>250496000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>250524000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>248409000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>259651000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>257065000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>257118000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>253003000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>247101000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>249153000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>248209000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>250352000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>252630000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>255556000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>252987000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>253147000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>244224000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2806,8 +2916,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16789000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15245000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14763000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14165000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9730000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9368000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9335000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9542000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10332000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11073000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10335000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9809000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9767000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10470000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10126000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9663000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9572000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332750000</v>
+      </c>
+      <c r="E54" s="3">
         <v>358043000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>361495000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>355804000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>362597000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>359361000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>360729000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>356189000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346196000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354628000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>348790000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>348826000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>348691000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>349427000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>343012000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>344209000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>330314000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35221000</v>
+      </c>
+      <c r="E57" s="3">
         <v>33340000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33216000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35815000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40605000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39336000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40324000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41190000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37268000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41714000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38490000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37207000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36796000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34698000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31100000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32069000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31193000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20458000</v>
+      </c>
+      <c r="E58" s="3">
         <v>21911000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22952000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27755000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20593000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21219000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26227000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21828000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17258000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19413000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20500000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19836000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17930000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15741000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17185000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18483000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13830000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1217000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1102000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1203000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2791000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3640000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3736000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3614000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2612000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4161000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3457000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3263000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3045000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3338000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2664000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2822000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2615000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56363000</v>
+      </c>
+      <c r="E60" s="3">
         <v>56468000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57270000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64773000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>63989000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64195000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70287000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66632000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57138000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65288000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62447000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>60306000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57771000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53777000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50949000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53374000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47638000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47182000</v>
+      </c>
+      <c r="E61" s="3">
         <v>46888000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>46563000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31857000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26481000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26089000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19141000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19177000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20538000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20624000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20720000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20781000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24406000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24869000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24750000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25124000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28932000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65075000</v>
+      </c>
+      <c r="E62" s="3">
         <v>70075000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70509000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70431000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73189000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>71968000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72836000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72359000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69992000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71885000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72090000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72828000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72014000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81583000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>81475000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>81940000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>79914000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175600000</v>
+      </c>
+      <c r="E66" s="3">
         <v>180643000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>181312000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>173725000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>170947000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169446000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>169352000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>164967000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154402000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>164263000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161568000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>160631000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161003000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>167151000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>163834000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>167058000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>162989000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>383943000</v>
+      </c>
+      <c r="E72" s="3">
         <v>407728000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>412124000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>416919000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>421341000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>419367000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>419913000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>420498000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>421653000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>419155000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>416418000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>415970000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>414540000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>409449000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>408768000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>408707000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>407831000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157150000</v>
+      </c>
+      <c r="E76" s="3">
         <v>177400000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>180183000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>182079000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>191650000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>189915000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>191377000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>191222000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191794000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>190365000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>187222000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>188195000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>187688000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>182276000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>179178000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>177151000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>167325000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20070000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-680000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-610000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5690000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3170000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3130000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2350000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6240000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3950000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4650000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8380000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3970000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3350000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4010000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1680000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30291000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4983000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4916000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5819000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4923000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4873000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4631000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4571000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5028000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4658000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4589000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4470000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5842000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4880000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4652000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4519000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8117000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4005000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4389000</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>6274000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6352000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9079000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5947000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8338000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8607000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11108000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7780000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8519000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7411000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7535000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6947000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8173000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7396000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3629000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3302000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,46 +5303,47 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3715000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="H96" s="3">
         <v>-3716000</v>
       </c>
       <c r="I96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="P96" s="3">
         <v>-3289000</v>
@@ -5119,16 +5352,19 @@
         <v>-3289000</v>
       </c>
       <c r="R96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="T96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5283000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6277000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8785000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>548000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E101" s="3">
         <v>70000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-32000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-369000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>106000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-125000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>43000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-149000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-135000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>30000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-127000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>232000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>135000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>74000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-414000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4468000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1164000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8323000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1138000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-373000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1544000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2239000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-695000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>948000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>224000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-855000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1240000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57552000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45738000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45425000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32277000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55134000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>63024000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>63422000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67491000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61646000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68253000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74187000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71456000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65436000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>50832000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>59350000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56026000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56474000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>40396000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40663000</v>
+      </c>
+      <c r="E9" s="3">
         <v>32041000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31053000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20964000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40380000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44254000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44138000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48464000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43771000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46957000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50873000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50245000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44779000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28979000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45248000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43843000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43267000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21193000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16889000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13697000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14372000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11313000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14754000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18770000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19284000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19027000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17875000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21296000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23314000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21211000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20657000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21853000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14102000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12183000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13207000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19203000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E12" s="3">
         <v>595000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>188000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>214000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>288000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>357000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>299000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>333000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>280000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>555000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>292000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>332000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>287000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>703000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>284000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>514000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>289000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>340000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,31 +1071,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>19127000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>787000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1114,67 +1133,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>30291000</v>
+        <v>5004000</v>
       </c>
       <c r="E15" s="3">
-        <v>4983000</v>
+        <v>11164000</v>
       </c>
       <c r="F15" s="3">
-        <v>4916000</v>
+        <v>4935000</v>
       </c>
       <c r="G15" s="3">
-        <v>5819000</v>
+        <v>4867000</v>
       </c>
       <c r="H15" s="3">
+        <v>5032000</v>
+      </c>
+      <c r="I15" s="3">
         <v>4923000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4873000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4631000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4571000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5028000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4658000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4589000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4470000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5842000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4880000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4652000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4519000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8117000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>55297000</v>
+      </c>
+      <c r="E17" s="3">
         <v>72840000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46292000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33928000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56167000</v>
       </c>
-      <c r="H17" s="3">
-        <v>60558000</v>
-      </c>
       <c r="I17" s="3">
-        <v>60096000</v>
+        <v>60527000</v>
       </c>
       <c r="J17" s="3">
+        <v>60061000</v>
+      </c>
+      <c r="K17" s="3">
         <v>64243000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59155000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63559000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67325000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>66842000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60767000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>48832000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55406000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53763000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>52607000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>42224000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2255000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-867000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="H18" s="3">
-        <v>2466000</v>
-      </c>
       <c r="I18" s="3">
-        <v>3326000</v>
+        <v>2497000</v>
       </c>
       <c r="J18" s="3">
+        <v>3361000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3248000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2491000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4694000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6862000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4614000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4669000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3944000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2263000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3867000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E20" s="3">
         <v>802000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>774000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>328000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1024000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4149000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1627000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1979000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3642000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2418000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2045000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2775000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1203000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1750000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2051000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2197000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2640000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>8854000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3991000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4890000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3593000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5810000</v>
       </c>
-      <c r="H21" s="3">
-        <v>11538000</v>
-      </c>
       <c r="I21" s="3">
-        <v>9826000</v>
+        <v>11569000</v>
       </c>
       <c r="J21" s="3">
+        <v>9861000</v>
+      </c>
+      <c r="K21" s="3">
         <v>9479000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9041000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13364000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13938000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11248000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11914000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9045000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10574000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8966000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10583000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8929000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E22" s="3">
         <v>313000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>279000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>317000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>249000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>201000</v>
       </c>
       <c r="I22" s="3">
         <v>232000</v>
       </c>
       <c r="J22" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K22" s="3">
         <v>216000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>181000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>215000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>147000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>204000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>186000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>111000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>158000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>146000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>195000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3592000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-372000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-258000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6414000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4721000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4632000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4289000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8121000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9080000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6512000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7240000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3017000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5583000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4156000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5918000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>617000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>337000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-471000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>512000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1424000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1474000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1241000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1883000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1936000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2634000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2526000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2457000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>550000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1498000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>892000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1828000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-709000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-770000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4990000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3247000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3391000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2406000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6185000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6446000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3986000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4783000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2467000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4085000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3264000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4090000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2024000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-680000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-610000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4950000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3170000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3130000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2350000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5979000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6240000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3950000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4650000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2438000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3970000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3350000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4010000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1680000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1865,16 +1922,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
         <v>25000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1882,11 +1942,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>740000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1894,11 +1954,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>21000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1906,11 +1966,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1595000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-802000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-774000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-328000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-680000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-610000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5690000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3170000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3130000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2350000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6240000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3950000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4650000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8380000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3970000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3350000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4010000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1680000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-680000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-610000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5690000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3170000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3130000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2350000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6240000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3950000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4650000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8380000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3970000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3350000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4010000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1680000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3515000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4364000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8832000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12576000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11412000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3089000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5351000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4213000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4586000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3042000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5669000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3430000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4125000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3177000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4266000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4042000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4897000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3657000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,362 +2595,383 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24755000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20581000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19974000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19036000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20871000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26966000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25308000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27132000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27105000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24701000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27880000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26993000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24686000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25597000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23263000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21289000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21842000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21394000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18357000</v>
+      </c>
+      <c r="E44" s="3">
         <v>18850000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17885000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19657000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16501000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18528000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17590000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18835000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18332000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18958000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18761000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18483000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18048000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16992000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16743000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15305000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14873000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>15080000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1568000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1098000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2002000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1747000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1465000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1469000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1759000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1563000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1553000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1272000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1665000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1649000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1456000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1480000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1544000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1519000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1285000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48195000</v>
+      </c>
+      <c r="E46" s="3">
         <v>44893000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48693000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53016000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50249000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50052000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50008000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>51743000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51576000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47973000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53975000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50555000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48315000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47134000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45752000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42180000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43131000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41416000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44181000</v>
+      </c>
+      <c r="E47" s="3">
         <v>43515000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43609000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43192000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42981000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43164000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42920000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42533000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42068000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40790000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40427000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39691000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40350000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>39160000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>37649000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>37719000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>38268000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35102000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>224641000</v>
+      </c>
+      <c r="E48" s="3">
         <v>227553000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>250496000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>250524000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>248409000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>259651000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>257065000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>257118000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>253003000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>247101000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>249153000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>248209000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>250352000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>252630000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>255556000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>252987000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>253147000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>244224000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2919,8 +3029,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16753000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16789000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15245000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14763000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14165000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9730000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9368000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9335000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9542000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10332000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11073000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10335000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9809000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9767000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10470000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10126000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9663000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9572000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>333770000</v>
+      </c>
+      <c r="E54" s="3">
         <v>332750000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>358043000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>361495000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>355804000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>362597000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>359361000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>360729000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356189000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>346196000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>354628000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>348790000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>348826000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>348691000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>349427000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>343012000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>344209000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>330314000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41017000</v>
+      </c>
+      <c r="E57" s="3">
         <v>35221000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33340000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33216000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35815000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40605000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39336000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40324000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41190000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37268000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41714000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38490000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37207000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36796000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34698000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31100000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32069000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31193000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18185000</v>
+      </c>
+      <c r="E58" s="3">
         <v>20458000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21911000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22952000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27755000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20593000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21219000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26227000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21828000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17258000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19413000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20500000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19836000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17930000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15741000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17185000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18483000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13830000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E59" s="3">
         <v>684000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1217000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1102000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1203000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2791000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3640000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3736000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3614000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2612000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4161000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3457000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3263000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3045000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3338000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2664000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2822000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2615000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60150000</v>
+      </c>
+      <c r="E60" s="3">
         <v>56363000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56468000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57270000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64773000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63989000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64195000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70287000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66632000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57138000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65288000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62447000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>60306000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57771000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53777000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50949000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53374000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47638000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45137000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47182000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>46888000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>46563000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31857000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26481000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26089000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19141000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19177000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20538000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20624000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20720000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20781000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24406000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24869000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24750000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25124000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28932000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64382000</v>
+      </c>
+      <c r="E62" s="3">
         <v>65075000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70075000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70509000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70431000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>73189000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>71968000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72836000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72359000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69992000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71885000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72090000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72828000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72014000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>81583000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>81475000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>81940000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>79914000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>176796000</v>
+      </c>
+      <c r="E66" s="3">
         <v>175600000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180643000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>181312000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>173725000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170947000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>169446000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>169352000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>164967000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154402000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>164263000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161568000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160631000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161003000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>167151000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>163834000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>167058000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>162989000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>382953000</v>
+      </c>
+      <c r="E72" s="3">
         <v>383943000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>407728000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>412124000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>416919000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>421341000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>419367000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>419913000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>420498000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>421653000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>419155000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>416418000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>415970000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>414540000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>409449000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>408768000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>408707000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>407831000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156974000</v>
+      </c>
+      <c r="E76" s="3">
         <v>157150000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>177400000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>180183000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>182079000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>191650000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>189915000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>191377000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191222000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191794000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>190365000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>187222000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>188195000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>187688000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>182276000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>179178000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>177151000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>167325000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-680000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-610000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5690000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3170000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3130000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2350000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6240000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3950000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4650000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8380000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3970000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3350000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4010000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1680000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5004000</v>
+      </c>
+      <c r="E83" s="3">
         <v>30291000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4983000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4916000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5819000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4923000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4873000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4631000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4571000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5028000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4658000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4589000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4470000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5842000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4880000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4652000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4519000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8117000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9264000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4005000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4389000</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>6274000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6352000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9079000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5947000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8338000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8607000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11108000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7780000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8519000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7411000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7535000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6947000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8173000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7396000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2355000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,49 +5536,50 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3720000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="I96" s="3">
         <v>-3716000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="Q96" s="3">
         <v>-3289000</v>
@@ -5355,16 +5588,19 @@
         <v>-3289000</v>
       </c>
       <c r="S96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="U96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7785000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6277000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8785000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>548000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
         <v>112000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>70000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-369000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>106000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-125000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>43000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-149000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-135000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>30000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>232000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>135000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>74000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-414000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-849000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1164000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8323000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1138000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-373000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1544000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2239000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-695000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>948000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>224000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-855000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1240000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>65943000</v>
+      </c>
+      <c r="E8" s="3">
         <v>57552000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45738000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45425000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32277000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55134000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>63024000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>63422000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67491000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61646000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68253000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74187000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71456000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65436000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>50832000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>59350000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56026000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56474000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40396000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45800000</v>
+      </c>
+      <c r="E9" s="3">
         <v>40663000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32041000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31053000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20964000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40380000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44254000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44138000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48464000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43771000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46957000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50873000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50245000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44779000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28979000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45248000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43843000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43267000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21193000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20143000</v>
+      </c>
+      <c r="E10" s="3">
         <v>16889000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13697000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14372000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11313000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14754000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18770000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19284000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19027000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17875000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21296000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23314000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21211000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20657000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21853000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14102000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12183000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13207000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19203000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +962,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E12" s="3">
         <v>164000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>595000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>188000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>214000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>288000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>357000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>299000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>333000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>280000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>555000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>292000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>332000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>287000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>703000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>284000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>514000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>289000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>340000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,34 +1090,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
-        <v>19127000</v>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3">
+        <v>25027000</v>
+      </c>
+      <c r="G14" s="3">
         <v>48000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>49000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>787000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1136,70 +1155,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4952000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5004000</v>
       </c>
-      <c r="E15" s="3">
-        <v>11164000</v>
-      </c>
       <c r="F15" s="3">
+        <v>5264000</v>
+      </c>
+      <c r="G15" s="3">
         <v>4935000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4867000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5032000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4923000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4873000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4631000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4571000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5028000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4658000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4589000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4470000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5842000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4880000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4652000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4519000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8117000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>61181000</v>
+      </c>
+      <c r="E17" s="3">
         <v>55297000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72840000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46292000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33928000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56167000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60527000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60061000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64243000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59155000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63559000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67325000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>66842000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>60767000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>48832000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55406000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53763000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>52607000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>42224000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2255000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-867000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2497000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3361000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3248000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2491000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4694000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6862000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4614000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4669000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3944000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2263000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3867000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1799000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1595000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>802000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>774000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>328000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1024000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4149000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1627000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1979000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3642000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2418000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2045000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2775000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1203000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1750000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2051000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2197000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2640000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>11513000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8854000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3991000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4890000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3593000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5810000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11569000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9861000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9479000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9041000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13364000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13938000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11248000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11914000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9045000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10574000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8966000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10583000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8929000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E22" s="3">
         <v>258000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>313000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>279000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>317000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>249000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>232000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>267000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>216000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>181000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>215000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>147000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>204000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>186000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>111000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>158000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>146000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>195000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>6307000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3592000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-372000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-258000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6414000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4721000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4632000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4289000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8121000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9080000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6512000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7240000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3017000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5583000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4156000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5918000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>617000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="E24" s="3">
         <v>796000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>337000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-471000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>512000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1424000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1474000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1241000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1883000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1936000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2634000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2526000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2457000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>550000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1498000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>892000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1828000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4781000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2796000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-709000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-770000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4990000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3247000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3391000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2406000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6185000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6446000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3986000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4783000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2467000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4085000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3264000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4090000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2024000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2730000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-680000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-610000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4950000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3170000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3130000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2350000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5979000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6240000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3950000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4650000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2438000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3970000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3350000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4010000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1680000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1925,19 +1982,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>25000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1945,11 +2005,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>740000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1957,11 +2017,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>21000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1969,11 +2029,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1799000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-802000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-774000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-328000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2730000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-680000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-610000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5690000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3170000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3130000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2350000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6000000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6240000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3950000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4650000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8380000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3970000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3350000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4010000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1680000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2730000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-680000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-610000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5690000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3170000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3130000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2350000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6000000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6240000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3950000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4650000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8380000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3970000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3350000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4010000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1680000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3515000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4364000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8832000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12576000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11412000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3089000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5351000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4213000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4586000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3042000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5669000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3430000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4125000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3177000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4266000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4042000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4897000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3657000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,380 +2687,401 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28540000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24755000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20581000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19974000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19036000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20871000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26966000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25308000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27132000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27105000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24701000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27880000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26993000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24686000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25597000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23263000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21289000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21842000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21394000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19275000</v>
+      </c>
+      <c r="E44" s="3">
         <v>18357000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18850000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17885000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19657000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16501000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18528000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17590000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18835000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18332000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18958000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18761000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18483000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18048000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16992000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16743000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>15305000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>14873000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15080000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1568000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1098000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2002000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1747000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1465000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1469000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1759000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1563000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1553000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1272000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1665000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1649000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1456000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1368000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1480000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1544000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1519000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1285000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52842000</v>
+      </c>
+      <c r="E46" s="3">
         <v>48195000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44893000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48693000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53016000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50249000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50052000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50008000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51743000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51576000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47973000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53975000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50555000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>48315000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47134000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45752000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42180000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43131000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41416000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44774000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44181000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43515000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43609000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43192000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>42981000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43164000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42920000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42533000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42068000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40790000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40427000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39691000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40350000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>39160000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>37649000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>37719000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38268000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>35102000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223012000</v>
+      </c>
+      <c r="E48" s="3">
         <v>224641000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>227553000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>250496000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>250524000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>248409000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>259651000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>257065000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>257118000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>253003000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>247101000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>249153000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>248209000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>250352000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>252630000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>255556000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>252987000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>253147000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>244224000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3032,8 +3142,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16661000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16753000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16789000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15245000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14763000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14165000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9730000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9368000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9335000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9542000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10332000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11073000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10335000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9809000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9767000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10470000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10126000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9663000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9572000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337289000</v>
+      </c>
+      <c r="E54" s="3">
         <v>333770000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>332750000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>358043000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>361495000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>355804000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>362597000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>359361000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>360729000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>356189000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>346196000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>354628000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>348790000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>348826000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>348691000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>349427000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>343012000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>344209000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>330314000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45780000</v>
+      </c>
+      <c r="E57" s="3">
         <v>41017000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35221000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33340000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33216000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35815000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40605000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39336000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40324000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41190000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37268000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41714000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38490000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37207000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36796000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34698000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31100000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32069000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31193000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15293000</v>
+      </c>
+      <c r="E58" s="3">
         <v>18185000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20458000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21911000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22952000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27755000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20593000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21219000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26227000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21828000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17258000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19413000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20500000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19836000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17930000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15741000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17185000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18483000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13830000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E59" s="3">
         <v>948000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>684000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1217000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1102000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1203000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2791000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3640000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3736000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3614000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2612000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4161000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3457000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3263000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3045000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3338000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2664000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2822000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2615000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62238000</v>
+      </c>
+      <c r="E60" s="3">
         <v>60150000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56363000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56468000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57270000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64773000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63989000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64195000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70287000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66632000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57138000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65288000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62447000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60306000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57771000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53777000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50949000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53374000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>47638000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45319000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45137000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47182000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>46888000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46563000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31857000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26481000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26089000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19141000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19177000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20538000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20624000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20720000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20781000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24406000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24869000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24750000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25124000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28932000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64176000</v>
+      </c>
+      <c r="E62" s="3">
         <v>64382000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65075000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70075000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70509000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70431000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>73189000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>71968000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72836000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72359000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>69992000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>71885000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72090000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72828000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72014000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>81583000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>81475000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>81940000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>79914000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>178718000</v>
+      </c>
+      <c r="E66" s="3">
         <v>176796000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>175600000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180643000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>181312000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>173725000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170947000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>169446000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>169352000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>164967000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>154402000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>164263000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161568000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160631000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161003000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>167151000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>163834000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>167058000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>162989000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>383922000</v>
+      </c>
+      <c r="E72" s="3">
         <v>382953000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>383943000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>407728000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>412124000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>416919000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>421341000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>419367000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>419913000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>420498000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>421653000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>419155000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>416418000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>415970000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>414540000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>409449000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>408768000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>408707000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>407831000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158571000</v>
+      </c>
+      <c r="E76" s="3">
         <v>156974000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>157150000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>177400000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>180183000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>182079000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>191650000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>189915000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191377000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191222000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>191794000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>190365000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>187222000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>188195000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>187688000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>182276000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>179178000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>177151000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>167325000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2730000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-680000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-610000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5690000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3170000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3130000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2350000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6000000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6240000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3950000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4650000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8380000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3970000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3350000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4010000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1680000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4952000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5004000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30291000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4983000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4916000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5819000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4923000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4873000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4631000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4571000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5028000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4658000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4589000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4470000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5842000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4880000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4652000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4519000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8117000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9650000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9264000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4005000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4389000</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>6274000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6352000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9079000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5947000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8338000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8607000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11108000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7780000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8519000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7411000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7535000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6947000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8173000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7396000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2747000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2716000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,52 +5769,53 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3721000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="J96" s="3">
         <v>-3716000</v>
       </c>
       <c r="K96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="R96" s="3">
         <v>-3289000</v>
@@ -5591,16 +5824,19 @@
         <v>-3289000</v>
       </c>
       <c r="T96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="V96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7022000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6277000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8785000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>548000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>112000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>70000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-32000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-369000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>106000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-125000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>43000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-149000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-135000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>30000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-127000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>232000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>135000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>74000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-414000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-849000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1164000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8323000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1138000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-373000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1544000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2239000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-695000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>948000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>224000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-855000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1240000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71892000</v>
+      </c>
+      <c r="E8" s="3">
         <v>65943000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57552000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45738000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45425000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32277000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55134000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>63024000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63422000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67491000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61646000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68253000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>74187000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71456000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65436000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>50832000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>59350000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56026000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>56474000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>40396000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48464000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45800000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40663000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32041000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31053000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20964000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40380000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44254000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44138000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48464000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43771000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46957000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50873000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50245000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44779000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28979000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45248000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43843000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43267000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21193000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23428000</v>
+      </c>
+      <c r="E10" s="3">
         <v>20143000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16889000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13697000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14372000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11313000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14754000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18770000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19284000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19027000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17875000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21296000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23314000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21211000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20657000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21853000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14102000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12183000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13207000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19203000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,73 +975,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E12" s="3">
         <v>176000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>164000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>595000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>188000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>214000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>288000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>357000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>299000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>333000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>280000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>555000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>292000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>332000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>287000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>703000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>284000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>514000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>289000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>340000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,26 +1123,26 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
-        <v>25027000</v>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="3">
-        <v>48000</v>
+        <v>24875000</v>
       </c>
       <c r="H14" s="3">
-        <v>49000</v>
+        <v>62000</v>
       </c>
       <c r="I14" s="3">
-        <v>787000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
+        <v>64000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>910000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1158,73 +1177,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4990000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4952000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5004000</v>
       </c>
-      <c r="F15" s="3">
-        <v>5264000</v>
-      </c>
       <c r="G15" s="3">
-        <v>4935000</v>
+        <v>5416000</v>
       </c>
       <c r="H15" s="3">
-        <v>4867000</v>
+        <v>4921000</v>
       </c>
       <c r="I15" s="3">
-        <v>5032000</v>
+        <v>4852000</v>
       </c>
       <c r="J15" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="K15" s="3">
         <v>4923000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4873000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4631000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4571000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5028000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4658000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4589000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4470000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5842000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4880000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4652000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4519000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8117000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>63966000</v>
+      </c>
+      <c r="E17" s="3">
         <v>61181000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55297000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72840000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46292000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33928000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56167000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60527000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60061000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64243000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59155000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63559000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67325000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66842000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60767000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>48832000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55406000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>53763000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>52607000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>42224000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>7926000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4762000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2255000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-867000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2497000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3361000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3248000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2491000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4694000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6862000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4614000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4669000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3944000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2263000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3867000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1400,333 +1432,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1894000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1799000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1595000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>802000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>774000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>328000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1024000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4149000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1627000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1979000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3642000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2418000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2045000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2775000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1203000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1750000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2051000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2197000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2640000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>14810000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11513000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8854000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3991000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4890000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3593000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5810000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11569000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9861000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9479000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9041000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13364000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13938000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11248000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11914000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9045000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10574000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8966000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10583000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8929000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E22" s="3">
         <v>254000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>258000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>313000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>279000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>317000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>249000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>232000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>267000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>216000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>181000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>215000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>147000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>204000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>186000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>111000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>158000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>146000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>195000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>9606000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6307000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3592000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-372000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-258000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6414000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4721000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4632000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4289000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8121000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9080000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6512000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7240000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3017000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5583000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4156000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5918000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>617000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2664000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1526000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>796000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>337000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-471000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>512000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1424000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1474000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1241000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1883000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1936000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2634000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2526000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2457000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>550000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1498000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>892000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1828000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>6942000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4781000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2796000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-709000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-770000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4990000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3247000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3391000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2406000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6185000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6446000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3986000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4783000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2467000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4085000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3264000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4090000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2024000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>6750000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4690000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2730000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-680000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-610000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4950000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3170000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3130000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2350000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5979000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6240000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3950000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4650000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2438000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3970000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3350000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4010000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1680000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1996,11 +2056,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>25000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -2008,11 +2068,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>740000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2020,11 +2080,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>21000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2032,11 +2092,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1894000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-802000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-774000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-328000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6750000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4690000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2730000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-680000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-610000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5690000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3170000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3130000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2350000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6240000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3950000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4650000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8380000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3970000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3350000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4010000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1680000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6750000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4690000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2730000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-680000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-610000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5690000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3170000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3130000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2350000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6240000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3950000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4650000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8380000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3970000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3350000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4010000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1680000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4768000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3465000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3515000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4364000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8832000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12576000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11412000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3089000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5351000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4213000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4586000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3042000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5669000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3430000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4125000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3177000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4266000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4042000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4897000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3657000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,398 +2779,419 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29516000</v>
+      </c>
+      <c r="E43" s="3">
         <v>28540000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24755000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20581000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19974000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19036000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20871000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26966000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25308000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27132000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27105000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24701000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27880000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26993000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24686000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25597000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23263000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21289000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21842000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21394000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19607000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19275000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18357000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18850000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17885000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19657000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16501000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18528000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17590000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18835000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18332000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18958000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18761000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18483000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18048000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16992000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16743000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>15305000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>14873000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15080000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1562000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1568000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1098000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2002000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1747000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1465000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1469000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1759000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1563000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1553000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1272000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1665000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1649000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1456000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1368000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1480000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1544000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1519000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1285000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55555000</v>
+      </c>
+      <c r="E46" s="3">
         <v>52842000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48195000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44893000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>48693000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>53016000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50249000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50052000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50008000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51743000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>51576000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47973000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53975000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50555000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>48315000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47134000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45752000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42180000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>43131000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>41416000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45641000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44774000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44181000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43515000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43609000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43192000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42981000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43164000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42920000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42533000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42068000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40790000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40427000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>39691000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40350000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>39160000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>37649000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>37719000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>38268000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>35102000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>218795000</v>
+      </c>
+      <c r="E48" s="3">
         <v>223012000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>224641000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>227553000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>250496000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>250524000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>248409000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>259651000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>257065000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>257118000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>253003000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>247101000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>249153000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>248209000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>250352000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>252630000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>255556000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>252987000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>253147000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>244224000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3145,8 +3255,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16697000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16661000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16753000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16789000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15245000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14763000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14165000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9730000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9368000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9335000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9542000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10332000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11073000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10335000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9809000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9767000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10470000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10126000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9663000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9572000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>336688000</v>
+      </c>
+      <c r="E54" s="3">
         <v>337289000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>333770000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>332750000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>358043000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>361495000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>355804000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>362597000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>359361000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>360729000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>356189000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>346196000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>354628000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>348790000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>348826000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>348691000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>349427000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>343012000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>344209000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>330314000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47257000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45780000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41017000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35221000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33340000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33216000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35815000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40605000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39336000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40324000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41190000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37268000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41714000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38490000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37207000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36796000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34698000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31100000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32069000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31193000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12966000</v>
+      </c>
+      <c r="E58" s="3">
         <v>15293000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18185000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20458000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21911000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22952000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27755000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20593000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21219000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26227000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21828000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17258000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19413000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20500000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19836000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17930000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15741000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17185000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18483000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13830000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1165000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>948000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>684000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1217000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1102000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1203000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2791000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3640000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3736000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3614000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2612000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4161000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3457000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3263000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3045000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3338000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2664000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2822000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2615000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61856000</v>
+      </c>
+      <c r="E60" s="3">
         <v>62238000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60150000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56363000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56468000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57270000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64773000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63989000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64195000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70287000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66632000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57138000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65288000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62447000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60306000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57771000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53777000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50949000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>53374000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47638000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43639000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45319000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45137000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47182000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46888000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46563000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31857000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26481000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26089000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19141000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19177000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20538000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20624000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20720000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20781000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24406000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24869000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24750000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25124000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28932000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63687000</v>
+      </c>
+      <c r="E62" s="3">
         <v>64176000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>64382000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65075000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70075000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70509000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>70431000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>73189000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71968000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72836000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72359000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>69992000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>71885000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72090000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72828000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72014000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>81583000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>81475000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>81940000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>79914000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>176099000</v>
+      </c>
+      <c r="E66" s="3">
         <v>178718000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>176796000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175600000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180643000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>181312000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>173725000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170947000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>169446000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169352000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>164967000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154402000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>164263000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161568000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>160631000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161003000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>167151000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>163834000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>167058000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>162989000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>386952000</v>
+      </c>
+      <c r="E72" s="3">
         <v>383922000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>382953000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>383943000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>407728000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>412124000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>416919000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>421341000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>419367000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>419913000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>420498000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>421653000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>419155000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>416418000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>415970000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>414540000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>409449000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>408768000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>408707000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>407831000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>160589000</v>
+      </c>
+      <c r="E76" s="3">
         <v>158571000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156974000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>157150000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>177400000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>180183000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>182079000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>191650000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>189915000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191377000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>191222000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191794000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>190365000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>187222000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>188195000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>187688000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>182276000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>179178000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>177151000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>167325000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6750000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4690000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2730000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-680000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-610000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5690000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3170000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3130000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2350000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6240000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3950000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4650000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8380000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3970000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3350000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4010000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1680000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4990000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4952000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5004000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30291000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4983000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4916000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5819000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4923000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4873000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4631000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4571000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5028000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4658000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4589000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4470000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5842000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4880000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4652000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4519000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8117000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12091000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9650000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9264000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4005000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4389000</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>6274000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6352000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9079000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5947000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8338000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8607000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11108000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7780000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8519000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7411000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7535000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6947000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8173000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7396000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2840000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3054000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,55 +6002,56 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3720000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="K96" s="3">
         <v>-3716000</v>
       </c>
       <c r="L96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="S96" s="3">
         <v>-3289000</v>
@@ -5827,16 +6060,19 @@
         <v>-3289000</v>
       </c>
       <c r="U96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="W96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7657000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6277000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8785000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>548000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E101" s="3">
         <v>38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>112000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>70000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-369000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>106000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-125000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>43000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-149000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>30000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-127000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>232000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>135000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>74000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-414000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-849000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1164000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8323000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1138000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-373000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1544000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2239000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-695000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>948000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>224000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-855000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1240000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81305000</v>
+      </c>
+      <c r="E8" s="3">
         <v>71892000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>65943000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57552000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45738000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45425000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32277000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55134000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63024000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63422000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67491000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61646000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68253000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>74187000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71456000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65436000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>50832000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>59350000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>56026000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>56474000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>40396000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>56272000</v>
+      </c>
+      <c r="E9" s="3">
         <v>48464000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45800000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40663000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32041000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31053000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20964000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40380000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44254000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44138000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48464000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43771000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46957000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50873000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50245000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44779000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28979000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>45248000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43843000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>43267000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21193000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25033000</v>
+      </c>
+      <c r="E10" s="3">
         <v>23428000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20143000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16889000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13697000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14372000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11313000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14754000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18770000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19284000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19027000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17875000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21296000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23314000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21211000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20657000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21853000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14102000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12183000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13207000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>19203000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,76 +988,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E12" s="3">
         <v>190000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>176000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>164000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>595000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>188000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>214000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>288000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>357000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>299000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>333000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>280000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>555000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>292000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>332000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>287000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>703000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>284000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>514000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>289000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>340000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,26 +1145,26 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
         <v>24875000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>62000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>64000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>910000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1180,76 +1199,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5661000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4990000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4952000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5004000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5416000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4921000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4852000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4909000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4923000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4873000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4631000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4571000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5028000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4658000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4589000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4470000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5842000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4880000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4652000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4519000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8117000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>73015000</v>
+      </c>
+      <c r="E17" s="3">
         <v>63966000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61181000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55297000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72840000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>46292000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33928000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56167000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60527000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60061000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64243000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59155000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63559000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67325000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>66842000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60767000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>48832000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55406000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>53763000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>52607000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>42224000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>8290000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7926000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4762000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2255000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-867000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2497000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3361000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3248000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2491000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4694000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6862000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4614000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4669000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2000000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3944000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2263000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3867000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3660000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1894000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1799000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1595000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>802000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>774000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>328000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1024000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4149000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1627000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1979000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3642000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2418000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2045000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2775000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1203000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1750000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2051000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2197000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2640000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>17611000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14810000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11513000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8854000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3991000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4890000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3593000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5810000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11569000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9861000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9479000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9041000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13364000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13938000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11248000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11914000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9045000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10574000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8966000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10583000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8929000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E22" s="3">
         <v>214000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>254000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>258000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>313000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>279000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>317000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>249000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>267000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>216000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>181000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>215000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>147000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>204000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>186000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>111000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>158000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>146000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>195000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>11729000</v>
+      </c>
+      <c r="E23" s="3">
         <v>9606000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6307000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3592000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-372000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-258000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6414000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4721000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4632000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4289000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8121000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9080000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6512000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7240000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3017000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5583000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4156000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5918000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>617000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2703000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2664000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1526000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>796000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>337000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-471000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>512000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1424000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1474000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1241000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1883000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1936000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2634000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2526000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2457000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>550000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1498000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>892000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1828000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>9026000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6942000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4781000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2796000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-709000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-770000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4990000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3247000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3391000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2406000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6185000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6446000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3986000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4783000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2467000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4085000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3264000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4090000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2024000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>8817000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6750000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4690000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2730000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-680000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-610000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4950000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3170000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3130000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2350000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5979000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6240000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3950000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4650000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2438000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3970000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3350000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4010000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1680000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,13 +2102,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>53000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -2059,11 +2119,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>25000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -2071,11 +2131,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>740000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2083,11 +2143,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>21000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2095,11 +2155,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3660000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-802000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-774000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-328000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8870000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6750000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4690000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2730000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-680000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-610000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5690000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3170000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3130000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2350000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6240000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3950000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4650000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8380000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3970000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3350000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4010000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1680000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8870000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6750000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4690000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2730000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-680000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-610000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5690000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3170000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3130000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2350000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6240000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3950000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4650000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8380000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3970000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3350000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4010000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1680000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6802000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4768000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3465000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3515000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4364000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8832000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12576000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11412000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3089000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5351000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4213000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4586000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3042000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5669000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3430000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4125000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3177000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4266000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4042000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4897000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3657000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,416 +2871,437 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32383000</v>
+      </c>
+      <c r="E43" s="3">
         <v>29516000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28540000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24755000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20581000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19974000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19036000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20871000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26966000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25308000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27132000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27105000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24701000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27880000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26993000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24686000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25597000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23263000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21289000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21842000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21394000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18780000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19607000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19275000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18357000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18850000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17885000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19657000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16501000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18528000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17590000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18835000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18332000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18958000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18761000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18483000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18048000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16992000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16743000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15305000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>14873000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>15080000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1664000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1562000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1568000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1098000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2002000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1747000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1465000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1469000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1759000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1563000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1553000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1272000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1665000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1649000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1456000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1368000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1480000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1544000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1519000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1285000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59154000</v>
+      </c>
+      <c r="E46" s="3">
         <v>55555000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52842000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48195000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44893000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>48693000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>53016000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50249000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50052000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50008000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>51743000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>51576000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47973000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53975000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50555000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>48315000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47134000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45752000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42180000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>43131000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>41416000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45195000</v>
+      </c>
+      <c r="E47" s="3">
         <v>45641000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44774000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44181000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43515000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43609000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43192000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42981000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43164000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42920000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42533000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42068000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40790000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40427000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>39691000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40350000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>39160000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>37649000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>37719000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>38268000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35102000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>216552000</v>
+      </c>
+      <c r="E48" s="3">
         <v>218795000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>223012000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>224641000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>227553000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>250496000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>250524000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>248409000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>259651000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>257065000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>257118000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>253003000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>247101000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>249153000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>248209000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>250352000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>252630000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>255556000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>252987000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>253147000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>244224000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3258,8 +3368,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18022000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16697000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16661000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16753000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16789000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15245000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14763000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14165000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9730000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9368000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9335000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9542000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10332000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11073000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10335000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9809000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9767000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10470000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10126000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9663000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9572000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>338923000</v>
+      </c>
+      <c r="E54" s="3">
         <v>336688000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>337289000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>333770000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>332750000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>358043000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>361495000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>355804000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>362597000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>359361000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>360729000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>356189000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>346196000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>354628000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>348790000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>348826000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>348691000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>349427000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>343012000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>344209000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>330314000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50766000</v>
+      </c>
+      <c r="E57" s="3">
         <v>47257000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45780000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41017000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35221000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33340000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33216000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35815000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40605000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39336000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40324000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41190000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37268000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41714000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38490000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37207000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36796000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34698000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31100000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32069000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31193000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12966000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15293000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18185000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20458000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21911000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22952000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27755000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20593000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21219000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26227000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21828000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17258000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19413000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20500000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19836000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17930000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15741000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17185000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>18483000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13830000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1633000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1165000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>948000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>684000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1217000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1102000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1203000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2791000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3640000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3736000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3614000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2612000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4161000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3457000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3263000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3045000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3338000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2664000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2822000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2615000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56643000</v>
+      </c>
+      <c r="E60" s="3">
         <v>61856000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62238000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60150000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56363000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56468000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57270000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64773000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63989000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64195000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70287000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>66632000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57138000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65288000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62447000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>60306000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57771000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53777000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50949000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53374000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>47638000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43428000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43639000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45319000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45137000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47182000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46888000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>46563000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31857000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26481000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26089000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19141000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19177000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20538000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20624000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20720000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20781000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24406000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24869000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24750000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25124000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28932000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63169000</v>
+      </c>
+      <c r="E62" s="3">
         <v>63687000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>64176000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>64382000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65075000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70075000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>70509000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70431000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73189000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71968000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72836000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72359000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69992000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71885000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72090000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72828000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72014000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>81583000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>81475000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>81940000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>79914000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170346000</v>
+      </c>
+      <c r="E66" s="3">
         <v>176099000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>178718000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>176796000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175600000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180643000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>181312000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>173725000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170947000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169446000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169352000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>164967000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154402000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>164263000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161568000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>160631000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>161003000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>167151000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>163834000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>167058000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>162989000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>392059000</v>
+      </c>
+      <c r="E72" s="3">
         <v>386952000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>383922000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>382953000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>383943000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>407728000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>412124000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>416919000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>421341000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>419367000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>419913000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>420498000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>421653000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>419155000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>416418000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>415970000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>414540000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>409449000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>408768000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>408707000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>407831000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>168577000</v>
+      </c>
+      <c r="E76" s="3">
         <v>160589000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158571000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156974000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>157150000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177400000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>180183000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>182079000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191650000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>189915000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>191377000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191222000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191794000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>190365000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>187222000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>188195000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>187688000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>182276000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>179178000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>177151000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>167325000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8870000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6750000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4690000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2730000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-680000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-610000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5690000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3170000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3130000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2350000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6240000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3950000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4650000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8380000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3970000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3350000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4010000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1680000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5661000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4990000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4952000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5004000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30291000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4983000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4916000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5819000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4923000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4873000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4631000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4571000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5028000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4658000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4589000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4470000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5842000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4880000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4652000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4519000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8117000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17124000</v>
+      </c>
+      <c r="E89" s="3">
         <v>12091000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9650000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9264000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4005000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4389000</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>6274000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6352000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9079000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5947000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8338000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8607000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11108000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7780000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8519000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7411000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7535000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6947000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8173000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7396000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4089000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2110000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,58 +6235,59 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3763000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="L96" s="3">
         <v>-3716000</v>
       </c>
       <c r="M96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="T96" s="3">
         <v>-3289000</v>
@@ -6063,16 +6296,19 @@
         <v>-3289000</v>
       </c>
       <c r="V96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="X96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12959000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6277000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8785000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>548000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-77000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>38000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>27000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>112000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>70000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-369000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>106000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-125000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-149000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-135000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>30000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-127000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>232000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>135000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>74000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-414000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1303000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-849000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1164000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8323000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1138000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-373000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1544000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-695000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>948000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>224000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-855000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1240000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>87734000</v>
+      </c>
+      <c r="E8" s="3">
         <v>81305000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71892000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>65943000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57552000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45738000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45425000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32277000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55134000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63024000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63422000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67491000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>61646000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68253000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>74187000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71456000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65436000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>50832000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>59350000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>56026000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>56474000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>40396000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>62629000</v>
+      </c>
+      <c r="E9" s="3">
         <v>56272000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48464000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45800000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40663000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32041000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31053000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20964000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40380000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44254000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44138000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48464000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>43771000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46957000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50873000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50245000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44779000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28979000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45248000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>43843000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>43267000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>21193000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25105000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25033000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23428000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20143000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16889000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13697000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14372000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11313000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14754000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18770000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19284000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19027000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17875000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21296000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23314000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21211000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20657000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21853000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14102000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12183000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13207000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>19203000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,79 +1001,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E12" s="3">
         <v>524000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>190000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>176000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>164000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>595000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>188000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>214000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>288000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>357000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>299000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>333000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>280000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>555000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>292000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>332000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>287000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>703000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>284000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>514000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>289000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>340000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,26 +1167,26 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>24875000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>62000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>64000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>910000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1202,79 +1221,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8883000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5661000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4990000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4952000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5004000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5416000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4921000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4852000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4909000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4923000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4873000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4631000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4571000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5028000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4658000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4589000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4470000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5842000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4880000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4652000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4519000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8117000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>81756000</v>
+      </c>
+      <c r="E17" s="3">
         <v>73015000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63966000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61181000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55297000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72840000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>46292000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33928000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56167000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60527000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60061000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64243000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59155000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63559000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67325000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>66842000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60767000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>48832000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>55406000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>53763000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>52607000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>42224000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8290000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7926000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4762000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2255000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-867000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2497000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3361000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3248000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2491000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4694000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6862000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4614000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4669000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2000000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3944000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2263000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3867000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2766000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3660000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1894000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1799000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1595000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>802000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>774000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>328000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1024000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4149000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1627000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1979000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3642000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2418000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2045000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2775000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1203000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1750000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2051000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2197000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2640000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>17627000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17611000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14810000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11513000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8854000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3991000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4890000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3593000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5810000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11569000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9861000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9479000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9041000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13364000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13938000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11248000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11914000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9045000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10574000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8966000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10583000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8929000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E22" s="3">
         <v>221000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>214000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>254000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>258000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>313000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>279000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>317000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>249000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>267000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>216000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>181000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>215000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>147000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>204000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>186000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>111000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>158000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>146000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>195000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>8556000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11729000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9606000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6307000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3592000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-372000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-258000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6414000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4721000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4632000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4289000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8121000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9080000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6512000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7240000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3017000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5583000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4156000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5918000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>617000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2806000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2703000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2664000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1526000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>796000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>337000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-471000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>512000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1424000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1474000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1241000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1883000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1936000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2634000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2526000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2457000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>550000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1498000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>892000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1828000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>5750000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9026000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6942000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4781000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2796000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-709000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-770000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4990000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3247000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3391000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2406000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6185000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6446000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3986000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4783000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2467000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4085000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3264000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4090000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2024000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>5480000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8817000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6750000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4690000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2730000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-680000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-610000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4950000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3170000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3130000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2350000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5979000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6240000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3950000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4650000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2438000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3970000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3350000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4010000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1680000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2105,16 +2162,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
         <v>53000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -2122,11 +2182,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>25000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -2134,11 +2194,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>740000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2146,11 +2206,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>21000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2158,11 +2218,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2766000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-802000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-774000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-328000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5480000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8870000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6750000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4690000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2730000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-680000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-610000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5690000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3170000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3130000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2350000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6240000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3950000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4650000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8380000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3970000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3350000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4010000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1680000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5480000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8870000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6750000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4690000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2730000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-680000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-610000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5690000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3170000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3130000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2350000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6240000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3950000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4650000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8380000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3970000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3350000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4010000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1680000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11074000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6802000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4768000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3465000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3515000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4364000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8832000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12576000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11412000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3089000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5351000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4213000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4586000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3042000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5669000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3430000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4125000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3177000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4266000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4042000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4897000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3657000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,434 +2963,455 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42142000</v>
+      </c>
+      <c r="E43" s="3">
         <v>32383000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29516000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28540000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24755000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20581000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19974000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19036000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20871000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26966000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25308000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27132000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27105000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24701000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27880000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26993000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24686000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25597000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23263000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21289000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21842000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21394000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22177000</v>
+      </c>
+      <c r="E44" s="3">
         <v>18780000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19607000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19275000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18357000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18850000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17885000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19657000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16501000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18528000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17590000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18835000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18332000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18958000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18761000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18483000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18048000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16992000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16743000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15305000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>14873000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>15080000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1862000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1189000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1664000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1562000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1568000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1098000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2002000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1747000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1465000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1469000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1759000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1563000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1553000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1272000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1665000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1649000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1456000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1368000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1480000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1544000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1519000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1285000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77255000</v>
+      </c>
+      <c r="E46" s="3">
         <v>59154000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>55555000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52842000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>48195000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44893000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>48693000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53016000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50249000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50052000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50008000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>51743000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>51576000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47973000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53975000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50555000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>48315000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47134000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45752000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42180000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>43131000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>41416000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>46329000</v>
+      </c>
+      <c r="E47" s="3">
         <v>45195000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45641000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44774000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44181000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43515000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43609000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43192000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42981000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43164000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42920000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42533000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42068000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40790000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40427000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>39691000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40350000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>39160000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>37649000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>37719000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>38268000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35102000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>212773000</v>
+      </c>
+      <c r="E48" s="3">
         <v>216552000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>218795000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223012000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>224641000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>227553000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>250496000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>250524000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>248409000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>259651000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>257065000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>257118000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>253003000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>247101000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>249153000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>248209000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>250352000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>252630000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>255556000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>252987000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>253147000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>244224000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3371,8 +3481,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18414000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18022000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16697000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16661000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16753000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16789000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15245000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14763000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14165000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9730000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9368000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9335000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9542000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10332000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11073000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10335000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9809000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9767000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10470000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10126000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9663000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9572000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>354771000</v>
+      </c>
+      <c r="E54" s="3">
         <v>338923000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>336688000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>337289000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>333770000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>332750000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>358043000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>361495000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355804000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>362597000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>359361000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>360729000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>356189000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>346196000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>354628000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>348790000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>348826000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>348691000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>349427000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>343012000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>344209000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>330314000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63501000</v>
+      </c>
+      <c r="E57" s="3">
         <v>50766000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47257000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45780000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41017000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35221000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33340000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33216000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35815000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40605000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39336000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40324000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41190000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37268000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41714000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38490000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37207000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36796000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34698000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31100000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32069000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>31193000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4886000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4276000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12966000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15293000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18185000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20458000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21911000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22952000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27755000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20593000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21219000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26227000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21828000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17258000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19413000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20500000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19836000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17930000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15741000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17185000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>18483000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13830000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3672000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1601000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1633000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1165000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>948000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>684000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1217000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1102000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1203000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2791000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3640000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3736000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3614000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2612000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4161000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3457000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3263000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3045000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3338000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2664000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2822000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2615000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72059000</v>
+      </c>
+      <c r="E60" s="3">
         <v>56643000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61856000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62238000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60150000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56363000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56468000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57270000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64773000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63989000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64195000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>70287000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>66632000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57138000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>65288000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>62447000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>60306000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>57771000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>53777000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50949000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>53374000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>47638000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42651000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43428000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43639000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45319000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45137000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47182000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>46888000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46563000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31857000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26481000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26089000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19141000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19177000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20538000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20624000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20720000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20781000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24406000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24869000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24750000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25124000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28932000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63535000</v>
+      </c>
+      <c r="E62" s="3">
         <v>63169000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63687000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>64176000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>64382000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65075000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>70075000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70509000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70431000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73189000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71968000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72836000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72359000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>69992000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71885000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72090000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72828000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72014000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>81583000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>81475000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>81940000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>79914000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>185556000</v>
+      </c>
+      <c r="E66" s="3">
         <v>170346000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>176099000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>178718000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>176796000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175600000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180643000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>181312000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>173725000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>170947000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169446000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169352000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>164967000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154402000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>164263000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161568000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>160631000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>161003000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>167151000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>163834000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>167058000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>162989000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>393779000</v>
+      </c>
+      <c r="E72" s="3">
         <v>392059000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>386952000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>383922000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>382953000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>383943000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>407728000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>412124000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>416919000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>421341000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>419367000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>419913000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>420498000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>421653000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>419155000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>416418000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>415970000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>414540000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>409449000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>408768000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>408707000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>407831000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169215000</v>
+      </c>
+      <c r="E76" s="3">
         <v>168577000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>160589000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158571000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156974000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>157150000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>177400000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>180183000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>182079000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191650000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>189915000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191377000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191222000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>191794000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>190365000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>187222000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>188195000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>187688000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>182276000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>179178000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>177151000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>167325000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5480000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8870000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6750000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4690000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2730000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-680000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-610000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5690000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3170000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3130000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2350000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6240000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3950000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4650000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8380000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3970000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3350000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4010000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1680000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8883000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5661000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4990000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4952000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5004000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30291000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4983000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4916000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5819000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4923000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4873000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4631000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4571000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5028000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4658000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4589000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4470000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5842000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4880000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4652000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4519000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8117000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14788000</v>
+      </c>
+      <c r="E89" s="3">
         <v>17124000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12091000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9650000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9264000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4005000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4389000</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>6274000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6352000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9079000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5947000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8338000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8607000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11108000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7780000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8519000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7411000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7535000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6947000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8173000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7396000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3911000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3945000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,61 +6468,62 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3760000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="M96" s="3">
         <v>-3716000</v>
       </c>
       <c r="N96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="U96" s="3">
         <v>-3289000</v>
@@ -6299,16 +6532,19 @@
         <v>-3289000</v>
       </c>
       <c r="W96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="Y96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6713000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6277000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8785000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>548000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-21000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-77000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>38000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>27000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>112000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>70000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-369000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>106000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-125000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>43000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-149000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-135000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-127000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>232000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>135000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>74000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-414000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4272000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2034000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1303000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-849000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1164000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8323000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1138000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-373000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1544000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2239000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-695000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>948000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>224000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-855000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1240000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>111265000</v>
+      </c>
+      <c r="E8" s="3">
         <v>87734000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81305000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71892000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>65943000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57552000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45738000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45425000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32277000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55134000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63024000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63422000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67491000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>61646000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68253000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>74187000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71456000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>65436000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>50832000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>59350000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>56026000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>56474000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>40396000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>76299000</v>
+      </c>
+      <c r="E9" s="3">
         <v>62629000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56272000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48464000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45800000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40663000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32041000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31053000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20964000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40380000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44254000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44138000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48464000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43771000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46957000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50873000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50245000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44779000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28979000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45248000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>43843000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>43267000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>21193000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34966000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25105000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25033000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23428000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20143000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16889000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13697000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14372000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11313000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14754000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18770000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19284000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19027000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17875000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21296000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23314000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21211000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20657000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21853000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14102000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12183000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13207000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19203000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,82 +1014,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E12" s="3">
         <v>173000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>524000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>190000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>176000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>164000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>595000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>188000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>214000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>288000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>357000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>299000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>333000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>280000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>555000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>292000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>332000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>287000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>703000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>284000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>514000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>289000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>340000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,16 +1166,19 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4600000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1170,26 +1189,26 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>24875000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>62000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>64000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>910000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1224,82 +1243,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8883000</v>
+        <v>4451000</v>
       </c>
       <c r="E15" s="3">
+        <v>4283000</v>
+      </c>
+      <c r="F15" s="3">
         <v>5661000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4990000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4952000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5004000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5416000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4921000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4852000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4909000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4923000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4873000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4631000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4571000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5028000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4658000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4589000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4470000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5842000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4880000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4652000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4519000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8117000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>90554000</v>
+      </c>
+      <c r="E17" s="3">
         <v>81756000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73015000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63966000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61181000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55297000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72840000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46292000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33928000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56167000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60527000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60061000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64243000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59155000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63559000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67325000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>66842000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>60767000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>48832000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>55406000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>53763000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>52607000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>42224000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>20711000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5978000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8290000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7926000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4762000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2255000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-867000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2497000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3361000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3248000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2491000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4694000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6862000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4614000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4669000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3944000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2263000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3867000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1499,378 +1531,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4416000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2766000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3660000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1894000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1799000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1595000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>802000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>774000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>328000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1024000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4149000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1627000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1979000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3642000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2418000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2045000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2775000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1203000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1750000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2051000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2197000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2640000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>29578000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17627000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17611000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14810000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11513000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8854000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3991000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4890000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3593000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5810000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11569000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9861000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9479000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9041000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13364000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13938000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11248000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11914000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9045000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10574000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8966000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10583000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8929000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E22" s="3">
         <v>188000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>221000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>214000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>254000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>258000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>313000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>279000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>317000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>249000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>232000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>267000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>216000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>181000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>215000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>147000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>204000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>186000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>111000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>158000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>146000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>195000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>24933000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8556000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11729000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9606000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6307000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3592000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-372000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-258000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6414000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4721000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4632000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4289000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8121000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9080000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6512000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7240000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3017000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5583000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4156000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5918000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>617000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>6359000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2806000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2703000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2664000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1526000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>796000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>337000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-471000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>512000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1424000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1474000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1241000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1883000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1936000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2634000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2526000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2457000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>550000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1498000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>892000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1828000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>18574000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5750000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9026000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6942000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4781000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2796000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-709000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-770000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4990000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3247000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3391000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2406000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6185000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6446000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3986000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4783000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2467000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4085000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3264000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4090000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2024000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>17850000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5480000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8817000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6750000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4690000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2730000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-680000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-610000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4950000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3170000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3130000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5979000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6240000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3950000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4650000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2438000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3970000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3350000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4010000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1680000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,19 +2222,22 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>53000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -2185,11 +2245,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>25000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2197,11 +2257,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>740000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2209,11 +2269,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>21000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2221,11 +2281,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4416000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2766000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-802000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-774000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-328000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17850000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5480000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8870000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6750000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4690000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2730000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-680000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-610000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5690000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3170000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3130000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6000000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6240000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3950000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4650000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8380000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3970000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3350000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4010000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1680000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17850000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5480000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8870000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6750000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4690000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2730000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-680000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-610000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5690000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3170000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3130000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6000000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6240000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3950000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4650000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8380000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3970000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3350000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4010000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1680000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18861000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11074000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6802000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4768000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3465000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3515000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4364000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8832000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12576000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11412000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3089000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5351000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4213000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4586000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3042000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5669000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3430000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4125000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3177000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4266000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4042000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4897000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3657000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,452 +3055,473 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48063000</v>
+      </c>
+      <c r="E43" s="3">
         <v>42142000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32383000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29516000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28540000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24755000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20581000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19974000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19036000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20871000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26966000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25308000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27132000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27105000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24701000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27880000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26993000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24686000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25597000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23263000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21289000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21842000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21394000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23585000</v>
+      </c>
+      <c r="E44" s="3">
         <v>22177000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18780000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19607000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19275000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18357000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18850000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17885000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19657000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16501000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18528000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17590000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18835000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18332000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18958000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18761000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18483000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18048000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16992000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16743000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>15305000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>14873000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>15080000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2654000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1862000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1189000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1664000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1562000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1568000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1098000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2002000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1747000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1465000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1469000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1759000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1563000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1553000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1272000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1665000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1649000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1456000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1368000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1480000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1544000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1519000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1285000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93163000</v>
+      </c>
+      <c r="E46" s="3">
         <v>77255000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59154000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55555000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52842000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>48195000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44893000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>48693000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53016000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50249000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50052000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50008000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>51743000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>51576000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47973000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>53975000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>50555000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>48315000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47134000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>45752000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42180000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>43131000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>41416000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>46820000</v>
+      </c>
+      <c r="E47" s="3">
         <v>46329000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45195000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>45641000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44774000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44181000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43515000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43609000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43192000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42981000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43164000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42920000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42533000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42068000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40790000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40427000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>39691000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40350000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>39160000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>37649000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>37719000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>38268000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>35102000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>209159000</v>
+      </c>
+      <c r="E48" s="3">
         <v>212773000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>216552000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>218795000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223012000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>224641000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>227553000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>250496000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>250524000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>248409000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>259651000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>257065000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>257118000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>253003000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>247101000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>249153000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>248209000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>250352000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>252630000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>255556000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>252987000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>253147000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>244224000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3484,8 +3594,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18632000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18414000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18022000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16697000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16661000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16753000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16789000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15245000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14763000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14165000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9730000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9368000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9335000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9542000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10332000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11073000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10335000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9809000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9767000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10470000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10126000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9663000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9572000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>367774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>354771000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>338923000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>336688000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>337289000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>333770000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>332750000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>358043000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>361495000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>355804000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>362597000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>359361000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>360729000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>356189000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>346196000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>354628000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>348790000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>348826000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>348691000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>349427000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>343012000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>344209000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>330314000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67958000</v>
+      </c>
+      <c r="E57" s="3">
         <v>63501000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50766000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47257000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45780000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41017000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35221000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33340000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33216000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35815000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40605000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39336000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40324000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41190000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37268000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41714000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38490000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37207000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>36796000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34698000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31100000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32069000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>31193000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7367000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4886000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4276000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12966000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15293000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18185000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20458000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21911000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22952000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27755000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20593000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21219000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26227000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21828000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17258000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19413000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>20500000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19836000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17930000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15741000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>17185000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>18483000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>13830000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4785000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3672000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1601000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1633000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1165000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>948000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>684000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1217000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1102000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1203000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2791000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3640000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3736000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3614000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2612000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4161000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3457000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3263000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3045000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3338000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2664000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2822000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2615000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80110000</v>
+      </c>
+      <c r="E60" s="3">
         <v>72059000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56643000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>61856000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62238000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60150000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56363000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56468000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57270000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64773000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63989000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64195000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70287000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>66632000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57138000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>65288000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>62447000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>60306000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>57771000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53777000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50949000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>53374000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>47638000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39516000</v>
+      </c>
+      <c r="E61" s="3">
         <v>42651000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43428000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43639000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45319000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45137000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47182000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46888000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46563000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31857000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26481000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26089000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19141000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19177000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20538000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20624000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20720000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20781000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24406000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24869000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24750000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25124000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28932000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63640000</v>
+      </c>
+      <c r="E62" s="3">
         <v>63535000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63169000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63687000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>64176000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>64382000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65075000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70075000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70509000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70431000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73189000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>71968000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72836000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72359000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>69992000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>71885000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72090000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72828000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72014000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>81583000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>81475000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>81940000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>79914000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>190458000</v>
+      </c>
+      <c r="E66" s="3">
         <v>185556000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170346000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>176099000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>178718000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>176796000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175600000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180643000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181312000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>173725000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>170947000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169446000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>169352000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>164967000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>154402000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>164263000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>161568000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>160631000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>161003000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>167151000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>163834000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>167058000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>162989000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>407902000</v>
+      </c>
+      <c r="E72" s="3">
         <v>393779000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>392059000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>386952000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>383922000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>382953000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>383943000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>407728000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>412124000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>416919000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>421341000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>419367000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>419913000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>420498000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>421653000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>419155000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>416418000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>415970000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>414540000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>409449000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>408768000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>408707000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>407831000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177316000</v>
+      </c>
+      <c r="E76" s="3">
         <v>169215000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>168577000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160589000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>158571000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156974000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>157150000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>177400000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>180183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>182079000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>191650000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>189915000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191377000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>191222000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>191794000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>190365000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>187222000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>188195000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>187688000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>182276000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>179178000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>177151000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>167325000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17850000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5480000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8870000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6750000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4690000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2730000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-680000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-610000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5690000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3170000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3130000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6000000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6240000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3950000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4650000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8380000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3970000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3350000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4010000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1680000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4451000</v>
+      </c>
+      <c r="E83" s="3">
         <v>8883000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5661000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4990000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4952000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5004000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30291000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4983000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4916000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5819000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4923000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4873000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4631000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4571000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5028000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4658000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4589000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4470000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5842000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4880000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4652000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4519000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8117000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19963000</v>
+      </c>
+      <c r="E89" s="3">
         <v>14788000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17124000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12091000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9650000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9264000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4005000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4389000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>6274000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6352000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9079000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5947000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8338000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8607000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11108000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7780000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8519000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7411000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7535000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6947000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8173000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7396000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3837000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3911000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3064000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3945000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,64 +6701,65 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3727000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3760000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="N96" s="3">
         <v>-3716000</v>
       </c>
       <c r="O96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="V96" s="3">
         <v>-3289000</v>
@@ -6535,16 +6768,19 @@
         <v>-3289000</v>
       </c>
       <c r="X96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="Z96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8671000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6713000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6277000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8785000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>548000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-441000</v>
+      </c>
+      <c r="E101" s="3">
         <v>142000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-21000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-77000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>38000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>27000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>112000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>70000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-369000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>106000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-125000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>43000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-149000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-135000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>30000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-127000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>232000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>135000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>74000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-414000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7787000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4272000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2034000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1303000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-849000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1164000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8323000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1138000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-373000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1544000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2239000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-695000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>948000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>224000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-855000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1240000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>106512000</v>
+      </c>
+      <c r="E8" s="3">
         <v>111265000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87734000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>81305000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71892000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>65943000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57552000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45738000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45425000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32277000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55134000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63024000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>63422000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67491000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>61646000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68253000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>74187000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>71456000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>65436000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>50832000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>59350000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>56026000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>56474000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>40396000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>71514000</v>
+      </c>
+      <c r="E9" s="3">
         <v>76299000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>62629000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>56272000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48464000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45800000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40663000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32041000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31053000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20964000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40380000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44254000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44138000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48464000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43771000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>46957000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50873000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50245000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44779000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>28979000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>45248000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>43843000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>43267000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>21193000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34998000</v>
+      </c>
+      <c r="E10" s="3">
         <v>34966000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25105000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25033000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23428000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20143000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16889000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13697000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14372000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11313000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14754000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18770000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19284000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19027000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17875000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21296000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23314000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21211000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20657000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21853000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>14102000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12183000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13207000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>19203000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,85 +1027,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E12" s="3">
         <v>286000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>173000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>524000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>190000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>176000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>164000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>595000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>188000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>214000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>288000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>357000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>299000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>333000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>280000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>555000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>292000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>332000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>287000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>703000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>284000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>514000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>289000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>340000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4600000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1192,26 +1211,26 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>24875000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>62000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>64000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>910000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1246,85 +1265,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5642000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4451000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4283000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5661000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4990000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4952000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5004000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5416000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4921000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4852000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4909000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4923000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4873000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4631000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4571000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5028000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4658000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4589000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4470000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5842000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4880000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4652000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4519000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8117000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>86439000</v>
+      </c>
+      <c r="E17" s="3">
         <v>90554000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81756000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73015000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63966000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61181000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55297000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72840000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46292000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33928000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56167000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60527000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60061000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64243000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59155000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63559000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67325000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>66842000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>60767000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>48832000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>55406000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>53763000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>52607000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>42224000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>20073000</v>
+      </c>
+      <c r="E18" s="3">
         <v>20711000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5978000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8290000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7926000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4762000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2255000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-867000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2497000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3361000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3248000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2491000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4694000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6862000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4614000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4669000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2000000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3944000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2263000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3867000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1532,393 +1564,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5558000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4416000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2766000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3660000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1894000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1799000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1595000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>802000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>774000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>328000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1024000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4149000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1627000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1979000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3642000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2418000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2045000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2775000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1203000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1750000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2051000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2197000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2640000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>31273000</v>
+      </c>
+      <c r="E21" s="3">
         <v>29578000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17627000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17611000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14810000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11513000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8854000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3991000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4890000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3593000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5810000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11569000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9861000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9479000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9041000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13364000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13938000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11248000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11914000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9045000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10574000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8966000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10583000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8929000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E22" s="3">
         <v>194000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>188000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>221000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>214000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>254000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>258000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>313000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>279000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>317000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>249000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>232000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>267000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>216000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>181000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>215000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>147000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>204000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>186000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>111000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>158000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>146000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>195000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>25422000</v>
+      </c>
+      <c r="E23" s="3">
         <v>24933000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8556000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11729000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9606000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6307000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3592000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-372000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-258000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6414000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4721000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4632000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4289000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8121000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9080000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6512000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7240000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3017000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5583000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4156000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5918000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>617000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5224000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6359000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2806000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2703000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2664000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1526000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>796000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>337000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-471000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>512000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1424000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1474000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1241000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1883000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1936000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2634000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2526000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2457000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>550000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1498000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>892000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1828000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>20198000</v>
+      </c>
+      <c r="E26" s="3">
         <v>18574000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5750000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9026000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6942000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4781000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2796000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-709000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-770000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4990000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3247000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3391000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2406000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6185000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6446000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3986000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4783000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2467000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4085000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3264000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4090000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2024000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>19660000</v>
+      </c>
+      <c r="E27" s="3">
         <v>17850000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5480000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8817000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6750000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4690000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2730000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-680000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-610000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4950000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3170000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3130000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2350000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5979000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6240000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3950000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4650000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2438000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3970000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3350000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4010000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1680000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,11 +2296,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>53000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -2248,11 +2308,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>25000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2260,11 +2320,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>740000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2272,11 +2332,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>21000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2284,11 +2344,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5558000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4416000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2766000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-802000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-774000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-328000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19660000</v>
+      </c>
+      <c r="E33" s="3">
         <v>17850000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5480000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8870000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6750000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4690000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2730000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-680000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-610000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5690000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3170000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3130000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2350000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6000000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6240000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3950000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4650000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8380000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3970000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3350000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4010000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1680000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19660000</v>
+      </c>
+      <c r="E35" s="3">
         <v>17850000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5480000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8870000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6750000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4690000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2730000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-680000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-610000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5690000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3170000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3130000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2350000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6000000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6240000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3950000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4650000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8380000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3970000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3350000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4010000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1680000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30407000</v>
+      </c>
+      <c r="E41" s="3">
         <v>18861000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11074000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6802000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4768000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3465000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3515000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4364000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8832000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12576000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11412000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3089000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5351000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4213000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4586000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3042000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5669000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3430000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4125000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3177000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4266000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4042000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4897000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3657000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,470 +3147,491 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42411000</v>
+      </c>
+      <c r="E43" s="3">
         <v>48063000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42142000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32383000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29516000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28540000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24755000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20581000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19974000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19036000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20871000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26966000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25308000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27132000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27105000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24701000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27880000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26993000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24686000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25597000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23263000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21289000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21842000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21394000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24096000</v>
+      </c>
+      <c r="E44" s="3">
         <v>23585000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22177000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18780000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19607000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19275000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18357000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18850000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17885000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19657000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16501000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18528000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17590000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18835000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18332000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18958000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18761000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18483000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18048000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16992000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16743000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>15305000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>14873000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>15080000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2375000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2654000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1862000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1189000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1664000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1562000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1568000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1098000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2002000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1747000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1465000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1469000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1759000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1553000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1272000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1665000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1649000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1456000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1368000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1480000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1544000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1519000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1285000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99289000</v>
+      </c>
+      <c r="E46" s="3">
         <v>93163000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>77255000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59154000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55555000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52842000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>48195000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44893000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48693000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53016000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50249000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50052000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50008000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>51743000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>51576000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47973000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>53975000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>50555000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>48315000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47134000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>45752000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42180000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>43131000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>41416000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>50235000</v>
+      </c>
+      <c r="E47" s="3">
         <v>46820000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>46329000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>45195000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>45641000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44774000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44181000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43515000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43609000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43192000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42981000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43164000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42920000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42533000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42068000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40790000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40427000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>39691000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>40350000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>39160000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>37649000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>37719000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>38268000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>35102000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>203102000</v>
+      </c>
+      <c r="E48" s="3">
         <v>209159000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>212773000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>216552000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>218795000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>223012000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>224641000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>227553000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>250496000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>250524000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>248409000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>259651000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>257065000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>257118000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>253003000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>247101000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>249153000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>248209000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>250352000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>252630000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>255556000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>252987000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>253147000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>244224000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3597,8 +3707,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17526000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18632000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18414000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18022000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16697000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16661000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16753000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16789000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15245000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14763000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14165000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9730000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9368000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9335000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9542000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10332000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11073000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10335000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9809000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9767000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10470000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10126000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9663000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9572000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>370152000</v>
+      </c>
+      <c r="E54" s="3">
         <v>367774000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354771000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>338923000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>336688000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>337289000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>333770000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>332750000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>358043000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>361495000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>355804000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>362597000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>359361000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>360729000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>356189000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>346196000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>354628000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>348790000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>348826000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>348691000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>349427000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>343012000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>344209000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>330314000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62550000</v>
+      </c>
+      <c r="E57" s="3">
         <v>67958000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63501000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50766000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47257000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45780000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41017000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35221000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33340000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33216000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35815000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40605000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39336000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40324000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41190000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37268000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41714000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38490000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37207000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>36796000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34698000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>31100000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32069000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>31193000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6182000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7367000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4886000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4276000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12966000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15293000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18185000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20458000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21911000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22952000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27755000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20593000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21219000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26227000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21828000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17258000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19413000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>20500000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19836000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17930000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15741000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17185000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>18483000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>13830000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5325000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4785000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3672000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1601000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1633000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1165000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>948000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>684000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1217000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1102000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1203000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2791000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3640000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3736000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3614000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2612000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4161000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3457000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3263000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3045000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3338000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2664000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2822000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2615000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74057000</v>
+      </c>
+      <c r="E60" s="3">
         <v>80110000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72059000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56643000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61856000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62238000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>60150000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56363000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56468000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57270000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64773000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63989000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64195000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70287000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>66632000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57138000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>65288000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>62447000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>60306000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>57771000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>53777000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50949000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>53374000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>47638000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39246000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39516000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42651000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43428000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43639000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45319000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45137000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47182000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46888000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46563000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31857000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26481000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26089000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19141000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19177000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20538000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20624000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20720000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20781000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24406000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24869000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24750000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25124000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28932000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63806000</v>
+      </c>
+      <c r="E62" s="3">
         <v>63640000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63535000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63169000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63687000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>64176000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>64382000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>65075000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70075000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70509000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70431000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73189000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>71968000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72836000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72359000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>69992000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>71885000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72090000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72828000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72014000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>81583000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>81475000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>81940000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>79914000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>184052000</v>
+      </c>
+      <c r="E66" s="3">
         <v>190458000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>185556000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170346000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>176099000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>178718000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>176796000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>175600000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180643000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>181312000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>173725000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170947000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>169446000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>169352000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>164967000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>154402000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>164263000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>161568000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>160631000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>161003000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>167151000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>163834000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>167058000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>162989000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>423877000</v>
+      </c>
+      <c r="E72" s="3">
         <v>407902000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>393779000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>392059000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>386952000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>383922000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>382953000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>383943000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>407728000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>412124000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>416919000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>421341000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>419367000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>419913000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>420498000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>421653000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>419155000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>416418000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>415970000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>414540000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>409449000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>408768000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>408707000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>407831000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>186100000</v>
+      </c>
+      <c r="E76" s="3">
         <v>177316000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169215000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>168577000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>160589000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>158571000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>156974000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>157150000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177400000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>180183000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>182079000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191650000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>189915000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>191377000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>191222000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>191794000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>190365000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>187222000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>188195000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>187688000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>182276000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>179178000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>177151000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>167325000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19660000</v>
+      </c>
+      <c r="E81" s="3">
         <v>17850000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5480000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8870000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6750000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4690000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2730000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-680000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-610000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5690000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3170000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3130000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2350000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6000000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6240000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3950000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4650000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8380000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3970000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3350000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4010000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1680000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5642000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4451000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8883000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5661000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4990000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4952000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5004000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30291000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4983000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4916000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5819000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4923000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4873000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4631000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4571000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5028000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4658000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4589000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4470000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5842000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4880000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4652000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4519000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8117000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24425000</v>
+      </c>
+      <c r="E89" s="3">
         <v>19963000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14788000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17124000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12091000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9650000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9264000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4005000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4389000</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>6274000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6352000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9079000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5947000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8338000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8607000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11108000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7780000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8519000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7411000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7535000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6947000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8173000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7396000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4876000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3837000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3911000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2378000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3064000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3945000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,67 +6934,68 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3685000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3727000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3760000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="O96" s="3">
         <v>-3716000</v>
       </c>
       <c r="P96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="W96" s="3">
         <v>-3289000</v>
@@ -6771,16 +7004,19 @@
         <v>-3289000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="AA96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9793000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8671000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6713000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6277000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8785000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>548000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-651000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-441000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>142000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-77000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>38000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>112000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>70000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-369000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>106000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-125000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>43000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-149000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-135000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>30000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-127000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>232000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>135000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>74000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-414000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11603000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7787000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4272000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2034000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1303000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-849000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1164000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8323000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1138000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-373000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1544000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2239000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-695000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>948000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>224000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-855000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1240000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93164000</v>
+      </c>
+      <c r="E8" s="3">
         <v>106512000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>111265000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>87734000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81305000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71892000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65943000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57552000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45738000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45425000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32277000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55134000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>63024000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>63422000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67491000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>61646000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68253000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>74187000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>71456000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65436000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>50832000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>59350000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>56026000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>56474000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>40396000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>61126000</v>
+      </c>
+      <c r="E9" s="3">
         <v>71514000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>76299000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>62629000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>56272000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48464000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45800000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40663000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32041000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31053000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20964000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40380000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44254000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44138000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48464000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43771000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>46957000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50873000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50245000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>44779000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28979000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>45248000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>43843000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>43267000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>21193000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32038000</v>
+      </c>
+      <c r="E10" s="3">
         <v>34998000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34966000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25105000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25033000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23428000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20143000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16889000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13697000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14372000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11313000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14754000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18770000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19284000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19027000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17875000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21296000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23314000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21211000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>20657000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21853000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>14102000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>12183000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13207000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>19203000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,88 +1040,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E12" s="3">
         <v>218000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>286000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>173000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>524000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>190000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>176000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>164000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>595000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>188000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>214000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>288000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>357000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>299000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>333000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>280000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>555000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>292000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>332000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>287000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>703000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>284000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>514000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>289000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>340000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1200,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4600000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1214,26 +1233,26 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>24875000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>62000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>64000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>910000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1268,88 +1287,94 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5064000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5642000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4451000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4283000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5661000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4990000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4952000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5004000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5416000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4921000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4852000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4909000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4923000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4873000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4631000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4571000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5028000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4658000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4589000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4470000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5842000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4880000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4652000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4519000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8117000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>76380000</v>
+      </c>
+      <c r="E17" s="3">
         <v>86439000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90554000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81756000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73015000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63966000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61181000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55297000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72840000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46292000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33928000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>56167000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60527000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>60061000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64243000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59155000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63559000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67325000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>66842000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>60767000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>48832000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>55406000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>53763000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>52607000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>42224000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>16784000</v>
+      </c>
+      <c r="E18" s="3">
         <v>20073000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20711000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5978000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8290000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7926000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4762000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2255000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-867000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2497000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3361000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3248000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2491000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4694000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6862000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4614000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4669000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2000000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3944000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2263000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3867000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1565,408 +1597,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5558000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4416000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2766000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3660000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1894000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1799000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1595000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>802000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>774000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>328000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1024000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4149000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1979000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3642000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2418000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2045000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2775000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1203000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1750000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2051000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2197000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2640000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>24113000</v>
+      </c>
+      <c r="E21" s="3">
         <v>31273000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29578000</v>
       </c>
-      <c r="F21" s="3">
-        <v>17627000</v>
-      </c>
       <c r="G21" s="3">
+        <v>13027000</v>
+      </c>
+      <c r="H21" s="3">
         <v>17611000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14810000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11513000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8854000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3991000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4890000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3593000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5810000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11569000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9861000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9479000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9041000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13364000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13938000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11248000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11914000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9045000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10574000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8966000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10583000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>8929000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E22" s="3">
         <v>209000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>194000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>188000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>221000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>214000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>254000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>258000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>313000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>279000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>317000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>249000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>232000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>267000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>216000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>181000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>215000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>147000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>204000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>186000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>111000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>158000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>146000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>195000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>18842000</v>
+      </c>
+      <c r="E23" s="3">
         <v>25422000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24933000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8556000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11729000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9606000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6307000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3592000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-372000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-258000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6414000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4721000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4632000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4289000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8121000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9080000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6512000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7240000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3017000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5583000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4156000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5918000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>617000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5817000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5224000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6359000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2806000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2703000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2664000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1526000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>796000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>337000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-471000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>512000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1424000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1474000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1241000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1883000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1936000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2634000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2526000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2457000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>550000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1498000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>892000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1828000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>13025000</v>
+      </c>
+      <c r="E26" s="3">
         <v>20198000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18574000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5750000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9026000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6942000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4781000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2796000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-709000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-770000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4990000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3247000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3391000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2406000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6185000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6446000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3986000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4783000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2467000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4085000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3264000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4090000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2024000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>12720000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19660000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17850000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5480000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8817000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6750000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4690000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2730000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-680000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-610000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4950000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3170000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3130000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2350000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5979000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6240000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3950000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4650000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2438000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3970000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3350000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4010000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1680000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2285,13 +2342,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>30000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -2299,11 +2359,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>53000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -2311,11 +2371,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>25000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2323,11 +2383,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>740000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2335,11 +2395,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>21000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2347,11 +2407,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2265000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5558000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4416000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2766000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-802000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-774000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-328000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12750000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19660000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17850000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5480000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8870000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6750000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4690000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2730000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-680000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-610000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5690000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3170000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3130000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2350000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6000000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6240000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3950000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4650000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8380000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3970000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3350000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4010000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1680000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12750000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19660000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17850000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5480000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8870000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6750000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4690000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2730000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-680000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-610000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5690000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3170000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3130000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2350000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6000000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6240000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3950000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4650000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8380000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3970000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3350000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4010000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1680000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29640000</v>
+      </c>
+      <c r="E41" s="3">
         <v>30407000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18861000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11074000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6802000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4768000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3465000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3515000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4364000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8832000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12576000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11412000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3089000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5351000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4213000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4586000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3042000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5669000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3430000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4125000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3177000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4266000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4042000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4897000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3657000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,488 +3239,509 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8905000</v>
+      </c>
+      <c r="E43" s="3">
         <v>42411000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48063000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42142000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32383000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29516000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28540000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24755000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20581000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19974000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19036000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20871000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26966000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25308000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27132000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27105000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24701000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27880000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>26993000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24686000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25597000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>23263000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21289000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21842000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21394000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24435000</v>
+      </c>
+      <c r="E44" s="3">
         <v>24096000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23585000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22177000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18780000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19607000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19275000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18357000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18850000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17885000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19657000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16501000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18528000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17590000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18835000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18332000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18958000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18761000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18483000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18048000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16992000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16743000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>15305000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>14873000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>15080000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1807000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2375000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2654000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1862000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1189000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1664000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1562000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1568000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1098000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2002000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1747000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1465000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1469000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1759000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1563000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1553000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1272000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1665000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1649000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1456000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1368000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1480000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1544000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1519000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1285000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97631000</v>
+      </c>
+      <c r="E46" s="3">
         <v>99289000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93163000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>77255000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59154000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55555000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52842000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>48195000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44893000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48693000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53016000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50249000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50052000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50008000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>51743000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>51576000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47973000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>53975000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>50555000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>48315000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>47134000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>45752000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>42180000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>43131000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>41416000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>49793000</v>
+      </c>
+      <c r="E47" s="3">
         <v>50235000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>46820000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>46329000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>45195000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>45641000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44774000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44181000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43515000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43609000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43192000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42981000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43164000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42920000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42533000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42068000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40790000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40427000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>39691000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>40350000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>39160000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>37649000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>37719000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>38268000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>35102000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>204692000</v>
+      </c>
+      <c r="E48" s="3">
         <v>203102000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>209159000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>212773000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>216552000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>218795000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>223012000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>224641000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>227553000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>250496000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>250524000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>248409000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>259651000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>257065000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>257118000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>253003000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>247101000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>249153000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>248209000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>250352000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>252630000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>255556000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>252987000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>253147000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>244224000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3710,8 +3820,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16951000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17526000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18632000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18414000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18022000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16697000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16661000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16753000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16789000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15245000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14763000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14165000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9730000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9368000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9335000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9542000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10332000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11073000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10335000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9809000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9767000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10470000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10126000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9663000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9572000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>369067000</v>
+      </c>
+      <c r="E54" s="3">
         <v>370152000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>367774000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354771000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>338923000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>336688000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>337289000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>333770000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>332750000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>358043000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>361495000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>355804000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>362597000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>359361000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>360729000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>356189000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>346196000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>354628000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>348790000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>348826000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>348691000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>349427000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>343012000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>344209000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>330314000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4299,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63197000</v>
+      </c>
+      <c r="E57" s="3">
         <v>62550000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67958000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63501000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50766000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47257000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45780000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41017000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35221000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33340000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33216000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35815000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40605000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39336000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40324000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41190000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37268000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41714000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38490000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37207000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>36796000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34698000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>31100000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>32069000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31193000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6182000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7367000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4886000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4276000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12966000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15293000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18185000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20458000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21911000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22952000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27755000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20593000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21219000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26227000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21828000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17258000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19413000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>20500000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>19836000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>17930000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15741000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17185000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>18483000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13830000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5214000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5325000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4785000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3672000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1601000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1633000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1165000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>948000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>684000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1217000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1102000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1203000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2791000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3640000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3736000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3614000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2612000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4161000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3457000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3263000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3045000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3338000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2664000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2822000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2615000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>69045000</v>
+      </c>
+      <c r="E60" s="3">
         <v>74057000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80110000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72059000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56643000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>61856000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62238000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>60150000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56363000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56468000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57270000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64773000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>63989000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64195000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70287000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>66632000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57138000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>65288000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>62447000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>60306000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>57771000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>53777000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50949000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>53374000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>47638000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40559000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39246000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39516000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42651000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43428000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43639000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45319000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45137000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47182000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46888000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46563000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31857000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26481000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26089000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19141000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19177000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20538000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20624000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20720000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20781000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24406000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24869000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24750000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>25124000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>28932000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56990000</v>
+      </c>
+      <c r="E62" s="3">
         <v>63806000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63640000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63535000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63169000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63687000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>64176000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>64382000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65075000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70075000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70509000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70431000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>73189000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71968000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72836000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72359000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>69992000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>71885000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72090000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72828000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>72014000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>81583000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>81475000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>81940000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>79914000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>174018000</v>
+      </c>
+      <c r="E66" s="3">
         <v>184052000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>190458000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>185556000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>170346000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>176099000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>178718000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>176796000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>175600000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180643000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>181312000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>173725000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>170947000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>169446000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>169352000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>164967000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>154402000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>164263000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>161568000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>160631000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>161003000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>167151000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>163834000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>167058000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>162989000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>432860000</v>
+      </c>
+      <c r="E72" s="3">
         <v>423877000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>407902000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>393779000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>392059000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>386952000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>383922000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>382953000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>383943000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>407728000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>412124000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>416919000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>421341000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>419367000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>419913000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>420498000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>421653000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>419155000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>416418000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>415970000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>414540000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>409449000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>408768000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>408707000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>407831000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>195049000</v>
+      </c>
+      <c r="E76" s="3">
         <v>186100000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>177316000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169215000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168577000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>160589000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>158571000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156974000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>157150000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177400000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>180183000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>182079000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191650000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>189915000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>191377000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>191222000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>191794000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>190365000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>187222000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>188195000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>187688000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>182276000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>179178000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>177151000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>167325000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12750000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19660000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17850000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5480000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8870000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6750000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4690000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2730000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-680000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-610000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5690000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3170000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3130000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2350000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6000000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6240000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3950000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4650000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8380000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3970000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3350000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4010000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1680000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5064000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5642000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4451000</v>
       </c>
-      <c r="F83" s="3">
-        <v>8883000</v>
-      </c>
       <c r="G83" s="3">
+        <v>4283000</v>
+      </c>
+      <c r="H83" s="3">
         <v>5661000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4990000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4952000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5004000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30291000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4983000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4916000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5819000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4923000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4873000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4631000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4571000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5028000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4658000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4589000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4470000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5842000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4880000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4652000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4519000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8117000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17621000</v>
+      </c>
+      <c r="E89" s="3">
         <v>24425000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19963000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14788000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17124000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12091000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9650000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9264000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4005000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4389000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>6274000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6352000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9079000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5947000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8338000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8607000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11108000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7780000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8519000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7411000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7535000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6947000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8173000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7396000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5783000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3837000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3911000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5355000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3064000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3945000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,70 +7167,71 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3767000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3685000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3727000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3760000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="P96" s="3">
         <v>-3716000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="X96" s="3">
         <v>-3289000</v>
@@ -7007,16 +7240,19 @@
         <v>-3289000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="AB96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13937000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9793000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8671000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6713000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6277000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8785000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>548000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-651000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-441000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>142000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-21000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-77000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>38000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>27000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>112000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>70000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-369000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>106000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-125000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>43000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-149000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-135000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>30000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-127000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>232000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>135000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>74000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-414000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-799000</v>
+      </c>
+      <c r="E102" s="3">
         <v>11603000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7787000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4272000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2034000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1303000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-849000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1164000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8323000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1138000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-373000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1544000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2239000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-695000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>948000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>224000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-855000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1240000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>83644000</v>
+      </c>
+      <c r="E8" s="3">
         <v>93164000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>106512000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>111265000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>87734000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81305000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71892000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65943000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57552000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45738000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45425000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32277000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>55134000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>63024000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>63422000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67491000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>61646000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>68253000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>74187000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>71456000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65436000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>50832000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>59350000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>56026000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>56474000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>40396000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55439000</v>
+      </c>
+      <c r="E9" s="3">
         <v>61126000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71514000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>76299000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>62629000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>56272000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48464000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45800000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40663000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32041000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31053000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20964000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40380000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44254000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44138000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48464000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43771000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>46957000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50873000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50245000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>44779000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28979000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>45248000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>43843000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>43267000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>21193000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28205000</v>
+      </c>
+      <c r="E10" s="3">
         <v>32038000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34998000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34966000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25105000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25033000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23428000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20143000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16889000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13697000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14372000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11313000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14754000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18770000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19284000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19027000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17875000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21296000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23314000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21211000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>20657000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21853000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>14102000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>12183000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>13207000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>19203000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,91 +1053,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E12" s="3">
         <v>348000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>218000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>286000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>173000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>524000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>190000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>176000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>164000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>595000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>188000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>214000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>288000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>357000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>299000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>333000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>280000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>555000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>292000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>332000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>287000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>703000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>284000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>514000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>289000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>340000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,13 +1223,16 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1222,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4600000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1236,26 +1255,26 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>24875000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>62000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>64000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>910000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1290,91 +1309,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4244000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5064000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5642000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4451000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4283000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5661000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4990000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4952000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5004000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5416000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4921000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4852000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4909000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4923000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4873000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4631000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4571000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5028000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4658000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4589000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4470000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5842000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4880000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4652000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4519000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8117000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>69602000</v>
+      </c>
+      <c r="E17" s="3">
         <v>76380000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86439000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90554000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81756000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73015000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63966000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61181000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55297000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72840000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46292000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33928000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>56167000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>60527000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60061000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64243000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>59155000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63559000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67325000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>66842000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>60767000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>48832000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>55406000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>53763000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>52607000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>42224000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>14042000</v>
+      </c>
+      <c r="E18" s="3">
         <v>16784000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20073000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20711000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5978000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8290000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7926000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4762000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2255000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-867000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2497000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3361000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3248000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2491000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4694000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6862000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4614000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4669000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2000000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3944000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2263000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3867000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1598,423 +1630,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2920000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2265000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5558000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4416000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2766000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3660000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1894000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1799000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1595000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>802000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>774000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>328000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1024000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4149000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1627000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1979000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3642000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2418000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2045000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2775000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1203000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1750000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2051000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2197000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2640000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>21206000</v>
+      </c>
+      <c r="E21" s="3">
         <v>24113000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31273000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29578000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13027000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17611000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14810000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11513000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8854000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3991000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4890000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3593000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5810000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11569000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9861000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9479000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9041000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13364000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13938000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11248000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11914000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9045000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10574000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8966000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10583000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>8929000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E22" s="3">
         <v>207000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>209000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>194000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>188000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>221000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>214000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>254000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>258000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>313000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>279000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>317000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>249000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>232000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>267000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>216000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>181000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>215000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>147000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>204000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>186000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>111000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>158000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>146000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>195000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>16803000</v>
+      </c>
+      <c r="E23" s="3">
         <v>18842000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25422000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24933000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8556000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11729000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9606000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6307000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3592000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-372000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-258000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6414000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4721000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4632000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4289000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8121000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9080000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6512000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7240000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3017000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5583000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4156000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5918000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>617000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4960000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5817000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5224000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6359000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2806000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2703000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2664000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1526000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>796000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>337000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-471000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>512000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1424000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1474000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1241000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1883000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1936000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2634000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2526000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2457000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>550000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1498000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>892000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1828000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>11843000</v>
+      </c>
+      <c r="E26" s="3">
         <v>13025000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20198000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18574000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5750000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9026000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6942000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4781000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2796000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-709000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-770000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4990000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3247000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3391000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2406000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6185000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6446000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3986000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4783000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2467000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4085000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3264000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4090000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2024000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>11430000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12720000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19660000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17850000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5480000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8817000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6750000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4690000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2730000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-680000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-610000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4950000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3170000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3130000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2350000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5979000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6240000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3950000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4650000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2438000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3970000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3350000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4010000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1680000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2345,16 +2402,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
         <v>30000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -2362,11 +2422,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>53000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -2374,11 +2434,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>25000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2386,11 +2446,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>740000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2398,11 +2458,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>21000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2410,11 +2470,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2428,8 +2488,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2920000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2265000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5558000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4416000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2766000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-802000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-774000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-328000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11430000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12750000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19660000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17850000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5480000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8870000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6750000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4690000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2730000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-680000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-610000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5690000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3170000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3130000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2350000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6000000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6240000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3950000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4650000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8380000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3970000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3350000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4010000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1680000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11430000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12750000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19660000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17850000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5480000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8870000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6750000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4690000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2730000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-680000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-610000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5690000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3170000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3130000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2350000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6000000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6240000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3950000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4650000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8380000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3970000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3350000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4010000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1680000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3161,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32651000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29640000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30407000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18861000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11074000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6802000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4768000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3465000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3515000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4364000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8832000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12576000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11412000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3089000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5351000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4213000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4586000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3042000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5669000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3430000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4125000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3177000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4266000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4042000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4897000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3657000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,506 +3331,527 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8905000</v>
+        <v>38808000</v>
       </c>
       <c r="E43" s="3">
+        <v>41749000</v>
+      </c>
+      <c r="F43" s="3">
         <v>42411000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48063000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42142000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32383000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29516000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28540000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24755000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20581000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19974000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19036000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20871000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26966000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25308000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27132000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27105000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24701000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27880000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>26993000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>24686000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>25597000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>23263000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21289000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21842000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>21394000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23642000</v>
+      </c>
+      <c r="E44" s="3">
         <v>24435000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24096000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23585000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22177000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18780000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19607000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19275000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18357000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18850000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17885000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19657000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16501000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18528000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17590000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18835000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18332000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18958000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18761000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18483000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18048000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16992000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>16743000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>15305000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>14873000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>15080000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2123000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1807000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2375000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2654000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1862000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1189000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1664000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1562000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1568000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1098000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2002000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1747000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1465000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1469000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1759000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1563000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1553000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1272000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1665000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1649000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1456000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1368000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1480000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1544000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1519000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1285000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97224000</v>
+      </c>
+      <c r="E46" s="3">
         <v>97631000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99289000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>93163000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77255000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>59154000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55555000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52842000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48195000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44893000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48693000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53016000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50249000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50052000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50008000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>51743000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>51576000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47973000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>53975000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>50555000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>48315000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>47134000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>45752000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>42180000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>43131000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>41416000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>49044000</v>
+      </c>
+      <c r="E47" s="3">
         <v>49793000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>50235000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>46820000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>46329000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>45195000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45641000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44774000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44181000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43515000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43609000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43192000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42981000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>43164000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42920000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42533000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42068000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40790000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>40427000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>39691000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>40350000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>39160000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>37649000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>37719000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>38268000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>35102000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>206023000</v>
+      </c>
+      <c r="E48" s="3">
         <v>204692000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>203102000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>209159000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>212773000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>216552000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>218795000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>223012000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>224641000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>227553000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>250496000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>250524000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>248409000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>259651000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>257065000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>257118000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>253003000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>247101000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>249153000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>248209000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>250352000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>252630000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>255556000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>252987000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>253147000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>244224000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3823,8 +3933,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17080000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16951000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17526000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18632000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18414000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18022000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16697000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16661000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16753000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16789000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15245000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14763000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14165000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9730000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9368000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9335000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9542000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10332000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11073000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10335000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9809000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9767000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10470000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10126000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9663000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9572000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>369371000</v>
+      </c>
+      <c r="E54" s="3">
         <v>369067000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>370152000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>367774000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>354771000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>338923000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>336688000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>337289000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>333770000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>332750000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>358043000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>361495000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>355804000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>362597000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>359361000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>360729000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>356189000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>346196000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>354628000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>348790000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>348826000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>348691000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>349427000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>343012000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>344209000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>330314000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4429,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59935000</v>
+      </c>
+      <c r="E57" s="3">
         <v>63197000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62550000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>67958000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63501000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50766000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47257000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45780000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41017000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35221000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33340000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33216000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35815000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40605000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39336000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40324000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41190000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37268000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41714000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38490000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>37207000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>36796000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34698000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>31100000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>32069000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>31193000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="E58" s="3">
         <v>634000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6182000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7367000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4886000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4276000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12966000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15293000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18185000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20458000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21911000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22952000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27755000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20593000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21219000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26227000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21828000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17258000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19413000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>20500000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>19836000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17930000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15741000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>17185000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>18483000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>13830000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4435000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5214000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5325000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4785000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3672000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1601000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1633000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1165000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>948000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>684000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1217000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1102000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1203000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2791000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3640000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3736000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3614000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2612000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4161000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3457000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3263000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3045000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3338000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2664000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2822000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2615000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66666000</v>
+      </c>
+      <c r="E60" s="3">
         <v>69045000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74057000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80110000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72059000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56643000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61856000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62238000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60150000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56363000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56468000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57270000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64773000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>63989000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64195000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>70287000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>66632000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>57138000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>65288000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>62447000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>60306000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>57771000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>53777000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50949000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>53374000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>47638000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39150000</v>
+      </c>
+      <c r="E61" s="3">
         <v>40559000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39246000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39516000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>42651000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43428000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43639000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45319000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45137000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47182000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46888000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46563000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31857000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26481000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26089000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19141000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19177000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20538000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20624000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20720000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20781000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24406000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24869000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24750000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>25124000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>28932000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57141000</v>
+      </c>
+      <c r="E62" s="3">
         <v>56990000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63806000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63640000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63535000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63169000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63687000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>64176000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64382000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>65075000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70075000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70509000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70431000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>73189000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71968000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72836000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72359000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>69992000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>71885000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72090000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>72828000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>72014000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>81583000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>81475000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>81940000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>79914000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170686000</v>
+      </c>
+      <c r="E66" s="3">
         <v>174018000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>184052000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>190458000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>185556000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170346000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>176099000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>178718000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>176796000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>175600000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180643000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>181312000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>173725000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>170947000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>169446000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>169352000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>164967000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>154402000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>164263000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>161568000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>160631000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>161003000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>167151000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>163834000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>167058000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>162989000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>440552000</v>
+      </c>
+      <c r="E72" s="3">
         <v>432860000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>423877000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>407902000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>393779000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>392059000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>386952000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>383922000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>382953000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>383943000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>407728000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>412124000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>416919000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>421341000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>419367000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>419913000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>420498000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>421653000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>419155000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>416418000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>415970000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>414540000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>409449000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>408768000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>408707000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>407831000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>198685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>195049000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>186100000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>177316000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>169215000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>168577000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>160589000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>158571000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>156974000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>157150000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>177400000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>180183000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>182079000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>191650000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>189915000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>191377000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>191222000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>191794000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>190365000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>187222000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>188195000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>187688000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>182276000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>179178000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>177151000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>167325000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11430000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12750000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19660000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17850000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5480000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8870000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6750000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4690000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2730000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-680000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-610000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5690000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3170000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3130000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2350000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6000000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6240000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3950000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4650000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8380000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3970000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3350000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4010000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1680000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4244000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5064000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5642000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4451000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4283000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5661000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4990000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4952000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5004000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30291000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4983000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4916000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5819000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4923000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4873000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4631000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4571000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5028000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4658000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4589000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4470000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5842000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4880000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4652000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4519000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8117000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16341000</v>
+      </c>
+      <c r="E89" s="3">
         <v>17621000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24425000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19963000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14788000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17124000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12091000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9650000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9264000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4005000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4389000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>6274000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6352000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9079000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5947000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8338000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8607000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11108000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7780000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8519000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7411000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7535000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6947000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>8173000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7396000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5412000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5783000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3837000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3911000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4925000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3064000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3945000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,73 +7400,74 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3738000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3767000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3685000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3727000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3760000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="Q96" s="3">
         <v>-3716000</v>
       </c>
       <c r="R96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="Y96" s="3">
         <v>-3289000</v>
@@ -7243,16 +7476,19 @@
         <v>-3289000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="AC96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8507000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13937000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9793000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8671000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6713000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6277000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8785000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>548000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E101" s="3">
         <v>872000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-651000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-441000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>142000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-77000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>38000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>112000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>70000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-369000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>106000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-125000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>43000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-149000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-135000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>30000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-127000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>232000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>135000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>74000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-414000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3011000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-799000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11603000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7787000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4272000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2034000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1303000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-849000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1164000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8323000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1138000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-373000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1544000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2239000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-695000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>948000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>224000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-855000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1240000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80795000</v>
+      </c>
+      <c r="E8" s="3">
         <v>83644000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93164000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>106512000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>111265000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87734000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81305000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>71892000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65943000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57552000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45738000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45425000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32277000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55134000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>63024000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>63422000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67491000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>61646000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68253000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>74187000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>71456000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>65436000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>50832000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>59350000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>56026000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>56474000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>40396000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>56458000</v>
+      </c>
+      <c r="E9" s="3">
         <v>55439000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61126000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>71514000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>76299000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>62629000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56272000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48464000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45800000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40663000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32041000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31053000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20964000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40380000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44254000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44138000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48464000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43771000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>46957000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50873000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50245000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>44779000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28979000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>45248000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>43843000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>43267000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>21193000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24337000</v>
+      </c>
+      <c r="E10" s="3">
         <v>28205000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32038000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34998000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34966000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25105000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25033000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23428000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20143000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16889000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13697000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14372000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11313000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14754000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18770000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19284000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19027000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17875000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21296000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23314000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21211000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>20657000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21853000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>14102000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>12183000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>13207000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>19203000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,94 +1066,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E12" s="3">
         <v>141000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>348000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>218000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>286000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>173000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>524000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>190000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>176000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>164000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>595000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>188000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>214000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>288000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>357000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>299000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>333000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>280000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>555000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>292000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>332000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>287000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>703000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>284000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>514000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>289000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>340000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,16 +1242,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1244,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4600000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1258,26 +1277,26 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>24875000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>62000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>64000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>910000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1312,94 +1331,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4242000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4244000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5064000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5642000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4451000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4283000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5661000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4990000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4952000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5004000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5416000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4921000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4852000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4909000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4923000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4873000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4631000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4571000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5028000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4658000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4589000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4470000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5842000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4880000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4652000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4519000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8117000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>71009000</v>
+      </c>
+      <c r="E17" s="3">
         <v>69602000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>76380000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86439000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90554000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81756000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73015000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63966000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61181000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55297000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72840000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46292000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33928000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>56167000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>60527000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60061000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>64243000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59155000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63559000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67325000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>66842000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>60767000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>48832000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>55406000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>53763000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>52607000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>42224000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>9786000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14042000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16784000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20073000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20711000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5978000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8290000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7926000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4762000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2255000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-867000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2497000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3361000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3248000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2491000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4694000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6862000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4614000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4669000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2000000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3944000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2263000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3867000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1631,438 +1663,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2920000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2265000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5558000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4416000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2766000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3660000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1894000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1799000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1595000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>802000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>774000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>328000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4149000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1627000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1979000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3642000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2418000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2045000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2775000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1203000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1750000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2051000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2197000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2640000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>16147000</v>
+      </c>
+      <c r="E21" s="3">
         <v>21206000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24113000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31273000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29578000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13027000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17611000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14810000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11513000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8854000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3991000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4890000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3593000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5810000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11569000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9861000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9479000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9041000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13364000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13938000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11248000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11914000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9045000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10574000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>8966000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>10583000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8929000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E22" s="3">
         <v>159000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>207000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>209000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>194000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>188000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>221000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>214000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>254000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>258000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>313000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>279000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>317000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>249000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>232000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>267000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>216000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>181000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>215000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>147000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>204000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>186000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>111000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>158000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>146000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>195000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>11656000</v>
+      </c>
+      <c r="E23" s="3">
         <v>16803000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18842000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25422000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24933000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8556000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11729000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9606000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6307000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3592000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-372000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-258000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6414000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4721000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4632000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4289000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8121000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9080000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6512000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7240000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3017000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5583000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4156000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5918000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>617000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3503000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4960000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5817000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5224000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6359000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2806000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2703000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2664000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1526000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>796000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>337000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-471000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>512000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1424000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1474000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1241000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1883000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1936000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2634000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2526000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2457000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>550000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1498000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>892000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1828000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>8153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>11843000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13025000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20198000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18574000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5750000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9026000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6942000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4781000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2796000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-709000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-770000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4990000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3247000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3391000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2406000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6185000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6446000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3986000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4783000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2467000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4085000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3264000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4090000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2024000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>7880000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11430000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12720000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19660000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17850000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5480000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8817000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6750000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4690000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2730000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-680000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-610000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4950000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3170000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3130000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2350000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5979000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6240000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3950000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4650000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2438000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3970000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3350000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4010000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1680000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2405,19 +2462,22 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>30000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -2425,11 +2485,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>53000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2437,11 +2497,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>25000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2449,11 +2509,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>740000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2461,11 +2521,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>21000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2473,11 +2533,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2119000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2920000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2265000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5558000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4416000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2766000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-802000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-774000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-328000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7880000</v>
+      </c>
+      <c r="E33" s="3">
         <v>11430000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12750000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19660000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17850000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5480000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8870000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6750000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4690000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2730000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-680000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-610000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5690000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3170000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3130000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2350000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6000000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6240000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3950000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4650000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8380000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3970000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3350000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4010000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1680000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7880000</v>
+      </c>
+      <c r="E35" s="3">
         <v>11430000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12750000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19660000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17850000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5480000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8870000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6750000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4690000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2730000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-680000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-610000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5690000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3170000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3130000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2350000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6000000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6240000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3950000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4650000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8380000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3970000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3350000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4010000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1680000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,94 +3247,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29528000</v>
+      </c>
+      <c r="E41" s="3">
         <v>32651000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29640000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30407000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18861000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11074000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6802000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4768000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3465000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3515000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4364000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8832000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12576000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11412000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3089000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5351000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4213000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4586000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3042000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5669000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3430000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4125000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3177000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4266000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4042000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4897000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3657000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,524 +3423,545 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35915000</v>
+      </c>
+      <c r="E43" s="3">
         <v>38808000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41749000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42411000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48063000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42142000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32383000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29516000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28540000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24755000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20581000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19974000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19036000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20871000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26966000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25308000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27132000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27105000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24701000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27880000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26993000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>24686000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>25597000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>23263000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21289000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>21842000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>21394000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24249000</v>
+      </c>
+      <c r="E44" s="3">
         <v>23642000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24435000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24096000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23585000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22177000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18780000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19607000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19275000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18357000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18850000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17885000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19657000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16501000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18528000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17590000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18835000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18332000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18958000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18761000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18483000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>18048000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>16992000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>16743000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>15305000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>14873000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>15080000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2068000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2123000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1807000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2375000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2654000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1862000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1189000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1664000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1562000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1568000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1098000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2002000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1747000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1469000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1759000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1563000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1553000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1272000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1665000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1649000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1456000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1368000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1480000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1544000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1519000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1285000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91760000</v>
+      </c>
+      <c r="E46" s="3">
         <v>97224000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>97631000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>99289000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>93163000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>77255000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59154000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55555000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52842000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48195000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44893000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>48693000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53016000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50249000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50052000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50008000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>51743000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>51576000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47973000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>53975000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>50555000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>48315000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>47134000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>45752000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>42180000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>43131000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>41416000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>47273000</v>
+      </c>
+      <c r="E47" s="3">
         <v>49044000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>49793000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>50235000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>46820000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>46329000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45195000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>45641000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44774000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44181000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43515000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43609000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43192000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42981000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>43164000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42920000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42533000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42068000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>40790000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>40427000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>39691000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>40350000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>39160000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>37649000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>37719000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>38268000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>35102000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>206736000</v>
+      </c>
+      <c r="E48" s="3">
         <v>206023000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>204692000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>203102000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>209159000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>212773000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>216552000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>218795000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>223012000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>224641000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>227553000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>250496000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>250524000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>248409000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>259651000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>257065000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>257118000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>253003000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>247101000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>249153000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>248209000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>250352000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>252630000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>255556000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>252987000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>253147000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>244224000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3936,8 +4046,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17479000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17080000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16951000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17526000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18632000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18414000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18022000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16697000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16661000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16753000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16789000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15245000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14763000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14165000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9730000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9368000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9335000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9542000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10332000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11073000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10335000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9809000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9767000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10470000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10126000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9663000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9572000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>363248000</v>
+      </c>
+      <c r="E54" s="3">
         <v>369371000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>369067000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>370152000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>367774000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>354771000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>338923000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>336688000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>337289000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>333770000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>332750000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>358043000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>361495000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>355804000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>362597000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>359361000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>360729000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>356189000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>346196000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>354628000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>348790000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>348826000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>348691000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>349427000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>343012000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>344209000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>330314000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,524 +4559,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54404000</v>
+      </c>
+      <c r="E57" s="3">
         <v>59935000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63197000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62550000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67958000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63501000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50766000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47257000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45780000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41017000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35221000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33340000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33216000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35815000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40605000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39336000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40324000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41190000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37268000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41714000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38490000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37207000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>36796000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34698000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31100000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>32069000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>31193000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3929000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2296000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>634000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6182000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7367000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4886000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4276000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12966000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15293000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18185000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20458000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21911000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22952000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27755000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20593000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21219000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26227000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>21828000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17258000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>19413000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>20500000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>19836000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17930000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>15741000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>17185000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>18483000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>13830000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3482000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4435000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5214000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5325000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4785000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3672000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1601000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1633000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1165000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>948000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>684000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1217000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1102000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1203000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2791000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3640000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3736000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3614000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2612000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4161000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3457000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3263000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3045000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3338000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2664000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2822000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2615000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61815000</v>
+      </c>
+      <c r="E60" s="3">
         <v>66666000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>69045000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74057000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80110000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72059000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56643000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61856000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62238000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60150000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56363000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56468000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57270000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64773000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>63989000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>64195000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>70287000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>66632000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>57138000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>65288000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>62447000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>60306000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>57771000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>53777000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>50949000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>53374000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>47638000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37567000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39150000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40559000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39246000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39516000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42651000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43428000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43639000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45319000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45137000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47182000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46888000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46563000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31857000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26481000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26089000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19141000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19177000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20538000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20624000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20720000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20781000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24406000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24869000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24750000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>25124000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>28932000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56869000</v>
+      </c>
+      <c r="E62" s="3">
         <v>57141000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56990000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63806000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63640000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63535000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63169000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63687000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64176000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64382000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>65075000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70075000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70509000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70431000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73189000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>71968000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72836000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72359000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>69992000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>71885000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>72090000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>72828000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>72014000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>81583000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>81475000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>81940000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>79914000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164202000</v>
+      </c>
+      <c r="E66" s="3">
         <v>170686000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>174018000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>184052000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>190458000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>185556000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170346000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>176099000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>178718000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>176796000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>175600000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180643000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>181312000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>173725000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>170947000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>169446000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169352000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>164967000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>154402000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>164263000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>161568000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>160631000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>161003000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>167151000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>163834000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>167058000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>162989000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>444731000</v>
+      </c>
+      <c r="E72" s="3">
         <v>440552000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>432860000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>423877000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>407902000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>393779000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>392059000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>386952000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>383922000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>382953000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>383943000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>407728000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>412124000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>416919000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>421341000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>419367000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>419913000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>420498000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>421653000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>419155000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>416418000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>415970000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>414540000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>409449000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>408768000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>408707000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>407831000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>199046000</v>
+      </c>
+      <c r="E76" s="3">
         <v>198685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>195049000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>186100000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>177316000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>169215000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>168577000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>160589000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>158571000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>156974000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>157150000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>177400000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>180183000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>182079000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>191650000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>189915000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>191377000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>191222000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>191794000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>190365000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>187222000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>188195000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>187688000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>182276000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>179178000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>177151000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>167325000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7880000</v>
+      </c>
+      <c r="E81" s="3">
         <v>11430000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12750000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19660000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17850000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5480000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8870000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6750000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4690000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2730000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-680000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-610000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5690000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3170000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3130000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2350000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6000000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6240000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3950000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4650000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8380000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3970000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3350000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4010000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1680000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4242000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4244000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5064000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5642000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4451000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4283000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5661000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4990000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4952000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5004000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30291000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4983000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4916000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5819000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4923000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4873000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4631000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4571000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5028000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4658000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4589000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4470000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5842000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4880000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4652000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4519000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8117000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9383000</v>
+      </c>
+      <c r="E89" s="3">
         <v>16341000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17621000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24425000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19963000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14788000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17124000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12091000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9650000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9264000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4005000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4389000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>6274000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6352000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9079000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5947000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8338000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8607000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11108000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7780000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8519000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7411000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7535000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6947000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>8173000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7396000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5359000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5412000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5783000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3837000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3911000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4356000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4925000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3064000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3945000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,76 +7633,77 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3701000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3738000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3767000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3685000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3727000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3760000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="R96" s="3">
         <v>-3716000</v>
       </c>
       <c r="S96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="Z96" s="3">
         <v>-3289000</v>
@@ -7479,16 +7712,19 @@
         <v>-3289000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="AD96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8176000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8507000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13937000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9793000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8671000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6713000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6277000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8785000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>548000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>102000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>872000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-651000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-441000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>142000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-77000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>38000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>112000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>70000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>106000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-125000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>43000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-149000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-135000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>30000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-127000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>232000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>135000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>74000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-414000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3119000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3011000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-799000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11603000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7787000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4272000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2034000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1303000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-849000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1164000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8323000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1138000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-373000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1544000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2239000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-695000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>948000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>224000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-855000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1240000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>735000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>XOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>88570000</v>
+      </c>
+      <c r="E8" s="3">
         <v>80795000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>83644000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93164000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>106512000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>111265000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>87734000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81305000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71892000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65943000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>57552000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45738000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45425000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32277000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>55134000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>63024000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>63422000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67491000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>61646000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>68253000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>74187000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>71456000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>65436000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>50832000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>59350000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>56026000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>56474000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>40396000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>56767000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>61772000</v>
+      </c>
+      <c r="E9" s="3">
         <v>56458000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55439000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61126000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>71514000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>76299000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>62629000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>56272000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48464000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45800000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40663000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32041000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31053000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20964000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40380000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44254000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44138000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48464000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43771000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>46957000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50873000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>50245000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>44779000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>28979000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>45248000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>43843000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>43267000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>21193000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>41181000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26798000</v>
+      </c>
+      <c r="E10" s="3">
         <v>24337000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28205000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32038000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34998000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34966000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25105000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25033000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23428000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20143000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16889000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13697000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14372000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11313000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14754000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18770000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19284000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19027000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17875000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21296000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>23314000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21211000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>20657000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21853000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>14102000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>12183000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>13207000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>19203000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>15586000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,97 +1079,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E12" s="3">
         <v>133000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>141000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>348000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>218000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>286000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>173000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>524000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>190000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>176000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>164000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>595000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>188000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>214000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>288000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>357000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>299000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>333000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>280000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>555000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>292000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>332000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>287000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>703000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>284000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>514000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>289000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>340000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1256,8 +1275,8 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1266,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4600000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1280,26 +1299,26 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3">
         <v>24875000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>62000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>64000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>910000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1334,97 +1353,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4415000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4242000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4244000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5064000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5642000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4451000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4283000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5661000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4990000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4952000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5004000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5416000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4921000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4852000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4909000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4923000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4873000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4631000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4571000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5028000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4658000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4589000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4470000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5842000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4880000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4652000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4519000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>8117000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>71009000</v>
+        <v>76159000</v>
       </c>
       <c r="E17" s="3">
-        <v>69602000</v>
+        <v>70272000</v>
       </c>
       <c r="F17" s="3">
-        <v>76380000</v>
+        <v>69063000</v>
       </c>
       <c r="G17" s="3">
-        <v>86439000</v>
+        <v>74720000</v>
       </c>
       <c r="H17" s="3">
-        <v>90554000</v>
+        <v>85513000</v>
       </c>
       <c r="I17" s="3">
-        <v>81756000</v>
+        <v>89826000</v>
       </c>
       <c r="J17" s="3">
+        <v>81528000</v>
+      </c>
+      <c r="K17" s="3">
         <v>73015000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63966000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61181000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55297000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72840000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46292000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33928000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>56167000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60527000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60061000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64243000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59155000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>63559000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67325000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>66842000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>60767000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>48832000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>55406000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>53763000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>52607000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>42224000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>55345000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9786000</v>
+        <v>12411000</v>
       </c>
       <c r="E18" s="3">
-        <v>14042000</v>
+        <v>10523000</v>
       </c>
       <c r="F18" s="3">
-        <v>16784000</v>
+        <v>14581000</v>
       </c>
       <c r="G18" s="3">
-        <v>20073000</v>
+        <v>18444000</v>
       </c>
       <c r="H18" s="3">
-        <v>20711000</v>
+        <v>20999000</v>
       </c>
       <c r="I18" s="3">
-        <v>5978000</v>
+        <v>21439000</v>
       </c>
       <c r="J18" s="3">
+        <v>6206000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8290000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7926000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4762000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2255000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27102000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-867000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1651000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1033000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2497000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3361000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3248000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2491000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4694000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6862000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4614000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4669000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2000000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3944000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2263000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3867000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1828000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1422000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1664,453 +1696,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2119000</v>
+        <v>1457000</v>
       </c>
       <c r="E20" s="3">
-        <v>2920000</v>
+        <v>1382000</v>
       </c>
       <c r="F20" s="3">
-        <v>2265000</v>
+        <v>2381000</v>
       </c>
       <c r="G20" s="3">
-        <v>5558000</v>
+        <v>605000</v>
       </c>
       <c r="H20" s="3">
-        <v>4416000</v>
+        <v>4632000</v>
       </c>
       <c r="I20" s="3">
-        <v>2766000</v>
+        <v>3688000</v>
       </c>
       <c r="J20" s="3">
+        <v>2538000</v>
+      </c>
+      <c r="K20" s="3">
         <v>3660000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1894000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1799000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1595000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>802000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>774000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>328000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1024000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4149000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1627000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1979000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3642000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2418000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2045000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2775000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1203000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1750000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2051000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2197000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2640000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1910000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>18283000</v>
+      </c>
+      <c r="E21" s="3">
         <v>16147000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21206000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24113000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31273000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29578000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13027000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17611000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14810000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11513000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8854000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3991000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4890000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3593000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5810000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11569000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9861000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9479000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9041000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13364000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13938000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11248000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11914000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9045000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10574000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>8966000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10583000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>8929000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>7937000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E22" s="3">
         <v>249000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>159000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>207000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>209000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>194000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>188000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>221000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>214000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>254000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>258000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>313000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>279000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>317000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>249000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>232000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>267000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>216000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>181000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>215000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>147000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>204000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>186000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>111000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>158000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>146000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>195000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>13699000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11656000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16803000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18842000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25422000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24933000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8556000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11729000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9606000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6307000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3592000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26613000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-372000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1640000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-258000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6414000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4721000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4632000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4289000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8121000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9080000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6512000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7240000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3017000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5583000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4156000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5918000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>617000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3226000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4353000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3503000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4960000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5817000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5224000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6359000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2806000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2703000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2664000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1526000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>796000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5985000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>337000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-471000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>512000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1424000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1474000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1241000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1883000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1936000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2634000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2526000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2457000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>550000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1498000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>892000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1828000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1407000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>9346000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8153000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11843000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13025000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20198000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18574000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5750000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9026000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6942000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4781000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2796000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20628000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-709000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1169000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-770000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4990000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3247000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3391000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2406000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6185000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6446000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3986000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4783000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2467000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4085000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3264000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4090000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2024000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>9070000</v>
+      </c>
+      <c r="E27" s="3">
         <v>7880000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11430000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12720000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19660000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17850000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5480000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8817000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6750000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4690000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2730000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20095000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-680000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1080000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-610000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4950000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3170000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3130000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2350000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5979000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6240000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3950000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4650000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2438000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3970000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3350000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4010000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1680000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2476,11 +2536,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>30000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -2488,11 +2548,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>53000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2500,11 +2560,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>25000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2512,11 +2572,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>740000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2524,11 +2584,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>21000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2536,11 +2596,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>5942000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2119000</v>
+        <v>-1457000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2920000</v>
+        <v>-1382000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2265000</v>
+        <v>-2381000</v>
       </c>
       <c r="G32" s="3">
-        <v>-5558000</v>
+        <v>-605000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4416000</v>
+        <v>-4632000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2766000</v>
+        <v>-3688000</v>
       </c>
       <c r="J32" s="3">
+        <v>-2538000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3660000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1894000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1799000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1595000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-802000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-774000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-328000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1024000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4149000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1627000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1979000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3642000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2418000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2045000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2775000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1203000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1750000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2051000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2197000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2640000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1910000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9070000</v>
+      </c>
+      <c r="E33" s="3">
         <v>7880000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11430000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12750000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19660000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17850000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5480000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8870000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6750000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4690000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2730000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20070000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-680000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1080000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-610000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5690000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3170000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3130000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2350000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6000000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6240000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3950000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4650000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8380000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3970000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3350000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4010000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1680000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9070000</v>
+      </c>
+      <c r="E35" s="3">
         <v>7880000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11430000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12750000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19660000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17850000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5480000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8870000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6750000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4690000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2730000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20070000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-680000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1080000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-610000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5690000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3170000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3130000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2350000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6000000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6240000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3950000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4650000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8380000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3970000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3350000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4010000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1680000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,97 +3333,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32944000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29528000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32651000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29640000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30407000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18861000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11074000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6802000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4768000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3465000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3515000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4364000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8832000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12576000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11412000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3089000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5351000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4213000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4586000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3042000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5669000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3430000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4125000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3177000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4266000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4042000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4897000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3657000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>5093000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3426,542 +3515,563 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3">
         <v>35915000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38808000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41749000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42411000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48063000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42142000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32383000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29516000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28540000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24755000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20581000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19974000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19036000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20871000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26966000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25308000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27132000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27105000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24701000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>27880000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>26993000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>24686000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>25597000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>23263000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>21289000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>21842000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>21394000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>20388000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24450000</v>
+      </c>
+      <c r="E44" s="3">
         <v>24249000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23642000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24435000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24096000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23585000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22177000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18780000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19607000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19275000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18357000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18850000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17885000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>19657000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16501000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18528000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>17590000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18835000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18332000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18958000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18761000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>18483000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>18048000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>16992000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>16743000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>15305000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>14873000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>15080000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>15342000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2068000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2123000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1807000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2375000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2654000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1862000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1189000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1664000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1562000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1568000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1098000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2002000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1465000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1469000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1759000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1563000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1553000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1272000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1665000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1649000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1456000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1368000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1480000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1544000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1519000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1285000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2122000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>101142000</v>
+      </c>
+      <c r="E46" s="3">
         <v>91760000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>97224000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>97631000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>99289000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93163000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>77255000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59154000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55555000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52842000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48195000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44893000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48693000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53016000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50249000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50052000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>50008000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>51743000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>51576000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47973000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>53975000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>50555000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>48315000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>47134000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>45752000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>42180000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>43131000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>41416000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>42945000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48066000</v>
+      </c>
+      <c r="E47" s="3">
         <v>47273000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>49044000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>49793000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>50235000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>46820000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>46329000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>45195000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>45641000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44774000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44181000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43515000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43609000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>43192000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42981000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>43164000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42920000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42533000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42068000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>40790000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>40427000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>39691000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>40350000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>39160000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>37649000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>37719000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>38268000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>35102000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>35553000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>205862000</v>
+      </c>
+      <c r="E48" s="3">
         <v>206736000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>206023000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>204692000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>203102000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>209159000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>212773000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>216552000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>218795000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>223012000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>224641000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>227553000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>250496000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>250524000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>248409000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>259651000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>257065000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>257118000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>253003000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>247101000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>249153000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>248209000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>250352000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>252630000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>255556000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>252987000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>253147000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>244224000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>251923000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4049,8 +4159,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17189000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17479000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17080000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16951000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17526000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18632000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18414000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18022000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16697000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16661000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16753000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16789000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15245000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14763000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14165000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9730000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9368000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9335000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9542000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10332000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11073000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10335000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9809000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9767000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10470000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10126000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9663000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>9572000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>8965000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>372259000</v>
+      </c>
+      <c r="E54" s="3">
         <v>363248000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>369371000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>369067000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>370152000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>367774000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>354771000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>338923000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>336688000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>337289000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>333770000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>332750000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>358043000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>361495000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>355804000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>362597000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>359361000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>360729000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>356189000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>346196000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>354628000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>348790000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>348826000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>348691000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>349427000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>343012000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>344209000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>330314000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>339386000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,542 +4689,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62257000</v>
+      </c>
+      <c r="E57" s="3">
         <v>54404000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59935000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63197000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62550000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67958000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63501000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50766000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47257000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45780000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41017000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35221000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33340000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33216000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35815000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40605000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39336000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40324000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41190000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37268000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41714000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38490000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>37207000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>36796000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>34698000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>31100000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>32069000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>31193000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>30027000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4743000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3929000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2296000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>634000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6182000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7367000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4886000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4276000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12966000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15293000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18185000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20458000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21911000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22952000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27755000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20593000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21219000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26227000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>21828000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17258000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>19413000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>20500000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>19836000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>17930000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>15741000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>17185000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>18483000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>13830000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>17239000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4186000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3482000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4435000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5214000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5325000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4785000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3672000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1601000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1633000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1165000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>948000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>684000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1217000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1203000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2791000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3640000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3736000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3614000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2612000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4161000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3457000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3263000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3045000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3338000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2664000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2822000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2615000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2755000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71186000</v>
+      </c>
+      <c r="E60" s="3">
         <v>61815000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66666000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>69045000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>74057000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>80110000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72059000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56643000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61856000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62238000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60150000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56363000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56468000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57270000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64773000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>63989000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>64195000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>70287000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>66632000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>57138000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>65288000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>62447000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>60306000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>57771000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>53777000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>50949000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>53374000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>47638000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>50021000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36510000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37567000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39150000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40559000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39246000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39516000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>42651000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43428000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43639000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45319000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45137000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47182000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46888000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>46563000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31857000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26481000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26089000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19141000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19177000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20538000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20624000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20720000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20781000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24406000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24869000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24750000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>25124000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>28932000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>28916000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57030000</v>
+      </c>
+      <c r="E62" s="3">
         <v>56869000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>57141000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56990000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63806000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63640000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63535000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63169000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63687000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64176000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>64382000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>65075000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70075000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70509000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70431000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73189000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>71968000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72836000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72359000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>69992000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>71885000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>72090000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>72828000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>72014000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>81583000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>81475000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>81940000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>79914000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>83439000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>172556000</v>
+      </c>
+      <c r="E66" s="3">
         <v>164202000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170686000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>174018000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>184052000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>190458000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>185556000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170346000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>176099000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>178718000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>176796000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>175600000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180643000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>181312000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>173725000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>170947000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169446000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>169352000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>164967000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>154402000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>164263000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>161568000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>160631000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>161003000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>167151000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>163834000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>167058000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>162989000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>168789000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>450138000</v>
+      </c>
+      <c r="E72" s="3">
         <v>444731000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>440552000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>432860000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>423877000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>407902000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>393779000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>392059000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>386952000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>383922000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>382953000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>383943000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>407728000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>412124000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>416919000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>421341000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>419367000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>419913000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>420498000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>421653000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>419155000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>416418000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>415970000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>414540000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>409449000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>408768000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>408707000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>407831000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>409284000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>199703000</v>
+      </c>
+      <c r="E76" s="3">
         <v>199046000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>198685000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>195049000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>186100000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177316000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>169215000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>168577000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>160589000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>158571000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>156974000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>157150000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>177400000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>180183000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>182079000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>191650000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>189915000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>191377000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>191222000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>191794000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>190365000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>187222000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>188195000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>187688000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>182276000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>179178000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>177151000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>167325000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>170597000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9070000</v>
+      </c>
+      <c r="E81" s="3">
         <v>7880000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11430000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12750000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19660000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17850000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5480000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8870000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6750000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4690000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2730000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20070000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-680000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1080000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-610000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5690000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3170000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3130000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2350000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6000000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6240000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3950000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4650000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8380000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3970000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3350000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4010000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1680000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>2650000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,97 +6786,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4415000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4242000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4244000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5064000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5642000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4451000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4283000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5661000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4990000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4952000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5004000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30291000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4983000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4916000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5819000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4923000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4873000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4631000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4571000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5028000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4658000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4589000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4470000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5842000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4880000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4652000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4519000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>8117000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>4605000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15963000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9383000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16341000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17621000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24425000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19963000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14788000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17124000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12091000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9650000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9264000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4005000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4389000</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>6274000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6352000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9079000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5947000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8338000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8607000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11108000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7780000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8519000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7411000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7535000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6947000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>8173000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>7396000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>5355000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4920000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5359000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5412000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5783000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4876000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3837000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3911000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4089000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2840000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2747000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3629000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3291000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4417000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5945000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6704000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6285000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6173000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5199000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6094000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5204000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4927000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3349000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4501000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4913000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3098000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2890000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3887000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-3404000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4279000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4356000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4925000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3064000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3945000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2110000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3054000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2716000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2355000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3302000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3709000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5081000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6367000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4264000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6150000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6877000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5793000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5584000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3907000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5096000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1859000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6536000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2555000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2878000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3761000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1672000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3235000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,79 +7866,80 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3663000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3701000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3738000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3767000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3685000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3727000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3760000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3763000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3721000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3720000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3716000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3719000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-3716000</v>
       </c>
       <c r="S96" s="3">
         <v>-3716000</v>
       </c>
       <c r="T96" s="3">
+        <v>-3716000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3715000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3505000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-3503000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-3502000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-3291000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-3289000</v>
       </c>
       <c r="AA96" s="3">
         <v>-3289000</v>
@@ -7715,16 +7948,19 @@
         <v>-3289000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-3289000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-3134000</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>-3133000</v>
       </c>
       <c r="AE96" s="3">
         <v>-3133000</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,271 +8232,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8059000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8176000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8507000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13937000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9793000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8671000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6713000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12959000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7657000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7022000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7785000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5283000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4494000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6277000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8785000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4456000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1666000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>548000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1044000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5501000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4959000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3244000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5742000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1837000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4988000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5059000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3246000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-6746000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1296000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="E101" s="3">
         <v>30000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>102000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>872000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-651000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-441000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>142000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-77000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>38000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>112000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>70000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-369000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>106000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-125000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>43000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-149000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-135000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>30000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-127000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>232000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>135000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>74000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-414000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3119000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3011000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-799000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11603000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7787000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4272000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2034000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1303000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-849000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4468000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3744000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1164000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8323000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2262000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1138000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-373000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1544000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2627000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2239000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-695000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>948000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1089000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>224000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-855000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1240000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1436000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>735000</v>
       </c>
     </row>
